--- a/article/Supplement/Table_S1_assembly_stats_and_opsins.xlsx
+++ b/article/Supplement/Table_S1_assembly_stats_and_opsins.xlsx
@@ -9,12 +9,15 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$254</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2040" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2040" uniqueCount="632">
   <si>
     <t>Species</t>
   </si>
@@ -142,9 +145,6 @@
     <t>C:70.8%[S:60.2%,D:10.6%],F:15.1%,M:14.1%,n:1066</t>
   </si>
   <si>
-    <t>Boeckaxelia_carpenterii</t>
-  </si>
-  <si>
     <t>GEPG01</t>
   </si>
   <si>
@@ -163,9 +163,6 @@
     <t>C:58.4%[S:54.4%,D:4.0%],F:17.9%,M:23.7%,n:1066</t>
   </si>
   <si>
-    <t>Boeckaxelia_potanini</t>
-  </si>
-  <si>
     <t>GEPH01</t>
   </si>
   <si>
@@ -184,9 +181,6 @@
     <t>C:75.4%[S:63.5%,D:11.9%],F:14.4%,M:10.2%,n:1066</t>
   </si>
   <si>
-    <t>Brachyuropus_grewingkii</t>
-  </si>
-  <si>
     <t>GEPD01</t>
   </si>
   <si>
@@ -205,9 +199,6 @@
     <t>C:54.1%[S:50.7%,D:3.4%],F:23.4%,M:22.5%,n:1066</t>
   </si>
   <si>
-    <t>Brandtia_latissima</t>
-  </si>
-  <si>
     <t>GEPJ01</t>
   </si>
   <si>
@@ -232,9 +223,6 @@
     <t>C:78.7%[S:64.1%,D:14.6%],F:15.8%,M:5.5%,n:1066</t>
   </si>
   <si>
-    <t>Caprella_sp</t>
-  </si>
-  <si>
     <t>NA (but present deposited to Dryad)</t>
   </si>
   <si>
@@ -253,9 +241,6 @@
     <t>C:63.7%[S:54.2%,D:9.5%],F:16.4%,M:19.9%,n:1066</t>
   </si>
   <si>
-    <t>Carinurus_bicarinatus</t>
-  </si>
-  <si>
     <t>GEPL01</t>
   </si>
   <si>
@@ -274,7 +259,7 @@
     <t>C:61.3%[S:55.6%,D:5.7%],F:20.7%,M:18.0%,n:1066</t>
   </si>
   <si>
-    <t>Cornugammarus_maximus</t>
+    <t>Cornugammarusmaximus</t>
   </si>
   <si>
     <t>GEPF01</t>
@@ -295,9 +280,6 @@
     <t>C:43.7%[S:39.8%,D:3.9%],F:24.0%,M:32.3%,n:1066</t>
   </si>
   <si>
-    <t>Crypturopus_inflatus</t>
-  </si>
-  <si>
     <t>GEPM01</t>
   </si>
   <si>
@@ -316,9 +298,6 @@
     <t>C:57.1%[S:51.9%,D:5.2%],F:17.1%,M:25.8%,n:1066</t>
   </si>
   <si>
-    <t>Dorogostaiskia_parasitica</t>
-  </si>
-  <si>
     <t>GERM01</t>
   </si>
   <si>
@@ -340,7 +319,7 @@
     <t>non-Gammarus Gammaridae</t>
   </si>
   <si>
-    <t>Echinogammarus_berilloni</t>
+    <t>Echinogammarusberilloni</t>
   </si>
   <si>
     <t>GHCT01</t>
@@ -361,7 +340,7 @@
     <t>SRR8089733</t>
   </si>
   <si>
-    <t>Echinogammarus_veneris</t>
+    <t>Echinogammarus veneris</t>
   </si>
   <si>
     <t>GARO01</t>
@@ -391,9 +370,6 @@
     <t>C:65.5%[S:44.2%,D:21.3%],F:15.2%,M:19.3%,n:1066</t>
   </si>
   <si>
-    <t>Echiuropus_macronychus</t>
-  </si>
-  <si>
     <t>GEPN01</t>
   </si>
   <si>
@@ -415,9 +391,6 @@
     <t>Eogammaridae</t>
   </si>
   <si>
-    <t>Eogammarus_possjeticus</t>
-  </si>
-  <si>
     <t>GGQT01</t>
   </si>
   <si>
@@ -442,9 +415,6 @@
     <t>C:69.0%[S:41.3%,D:27.7%],F:17.5%,M:13.5%,n:1066</t>
   </si>
   <si>
-    <t>Eucarinogammarus_wagii</t>
-  </si>
-  <si>
     <t>GEPO01</t>
   </si>
   <si>
@@ -472,9 +442,6 @@
     <t>C:85.7%[S:68.8%,D:16.9%],F:9.0%,M:5.3%,n:1066</t>
   </si>
   <si>
-    <t>Eulimnogammarus_cruentus</t>
-  </si>
-  <si>
     <t>GEPW01</t>
   </si>
   <si>
@@ -499,7 +466,7 @@
     <t>C:75.2%[S:59.4%,D:15.8%],F:12.8%,M:12.0%,n:1066</t>
   </si>
   <si>
-    <t>Eulimnogammarus_cyaneus</t>
+    <t>Eulimnogammaruscyaneus</t>
   </si>
   <si>
     <t>GEPS01</t>
@@ -532,7 +499,7 @@
     <t>C:78.2%[S:67.5%,D:10.7%],F:12.5%,M:9.3%,n:1066</t>
   </si>
   <si>
-    <t>Eulimnogammarus_czerskii</t>
+    <t>Eulimnogammarusczerskii</t>
   </si>
   <si>
     <t>GEPY01</t>
@@ -553,7 +520,7 @@
     <t>C:72.3%[S:61.6%,D:10.7%],F:13.7%,M:14.0%,n:1066</t>
   </si>
   <si>
-    <t>Eulimnogammarus_marituji</t>
+    <t>Eulimnogammarusmarituji</t>
   </si>
   <si>
     <t>GEPT01</t>
@@ -574,7 +541,7 @@
     <t>C:67.5%[S:52.5%,D:15.0%],F:12.8%,M:19.7%,n:1066</t>
   </si>
   <si>
-    <t>Eulimnogammarus_messerschmidtii</t>
+    <t>Eulimnogammarusmesserschmidtii</t>
   </si>
   <si>
     <t>GEPZ01</t>
@@ -595,7 +562,7 @@
     <t>C:82.2%[S:70.1%,D:12.1%],F:11.0%,M:6.8%,n:1066</t>
   </si>
   <si>
-    <t>Eulimnogammarus_similis</t>
+    <t>Eulimnogammarussimilis</t>
   </si>
   <si>
     <t>GEPQ01</t>
@@ -616,7 +583,7 @@
     <t>C:41.7%[S:38.0%,D:3.7%],F:20.2%,M:38.1%,n:1066</t>
   </si>
   <si>
-    <t>Eulimnogammarus_sp._gam16.4</t>
+    <t>Eulimnogammarussp.gam16.4</t>
   </si>
   <si>
     <t>GEQB01</t>
@@ -637,7 +604,7 @@
     <t>C:82.4%[S:69.6%,D:12.8%],F:10.4%,M:7.2%,n:1066</t>
   </si>
   <si>
-    <t>Eulimnogammarus_sp._gam2quest</t>
+    <t>Eulimnogammarussp.gam2quest</t>
   </si>
   <si>
     <t>GEQA01</t>
@@ -658,7 +625,7 @@
     <t>C:79.8%[S:68.0%,D:11.8%],F:12.7%,M:7.5%,n:1066</t>
   </si>
   <si>
-    <t>Eulimnogammarus_testaceus</t>
+    <t>Eulimnogammarustestaceus</t>
   </si>
   <si>
     <t>GERC01</t>
@@ -679,7 +646,7 @@
     <t>C:73.3%[S:63.9%,D:9.4%],F:14.2%,M:12.5%,n:1066</t>
   </si>
   <si>
-    <t>Eulimnogammarus_ussolzewii</t>
+    <t>Eulimnogammarusussolzewii</t>
   </si>
   <si>
     <t>GESQ01</t>
@@ -700,7 +667,7 @@
     <t>C:85.4%[S:67.4%,D:18.0%],F:9.6%,M:5.0%,n:1066</t>
   </si>
   <si>
-    <t>Eulimnogammarus_verrucosus</t>
+    <t>Eulimnogammarusverrucosus</t>
   </si>
   <si>
     <t>GEQC01</t>
@@ -730,7 +697,7 @@
     <t>C:70.7%[S:61.8%,D:8.9%],F:17.4%,M:11.9%,n:1066</t>
   </si>
   <si>
-    <t>Eulimnogammarus_violaceus</t>
+    <t>Eulimnogammarusviolaceus</t>
   </si>
   <si>
     <t>GESR01</t>
@@ -751,7 +718,7 @@
     <t>C:80.0%[S:66.6%,D:13.4%],F:13.4%,M:6.6%,n:1066</t>
   </si>
   <si>
-    <t>Eulimnogammarus_viridulus</t>
+    <t>Eulimnogammarusviridulus</t>
   </si>
   <si>
     <t>GEPU01</t>
@@ -772,7 +739,7 @@
     <t>C:70.0%[S:57.8%,D:12.2%],F:14.1%,M:15.9%,n:1066</t>
   </si>
   <si>
-    <t>Eulimnogammarus_vittatus</t>
+    <t>Eulimnogammarusvittatus</t>
   </si>
   <si>
     <t>GEPV01</t>
@@ -790,10 +757,13 @@
     <t>SRR5109804</t>
   </si>
   <si>
+    <t>Collins et al.; 2017, doi:10.1016/j.margen.2017.01.006</t>
+  </si>
+  <si>
     <t>Gammadiae; G. locusta group</t>
   </si>
   <si>
-    <t>Gammarus_chevreuxi</t>
+    <t>Gammaruschevreuxi</t>
   </si>
   <si>
     <t>GFCV01</t>
@@ -832,7 +802,7 @@
     <t>SRX4916614</t>
   </si>
   <si>
-    <t>Gammarus_fossarum</t>
+    <t>Gammarusfossarum</t>
   </si>
   <si>
     <t>GHCX01</t>
@@ -901,7 +871,7 @@
     <t>C:56.1%[S:51.2%,D:4.9%],F:18.4%,M:25.5%,n:1066</t>
   </si>
   <si>
-    <t>Gammarus_lacustris</t>
+    <t>Gammaruslacustris</t>
   </si>
   <si>
     <t>GERD01</t>
@@ -971,7 +941,7 @@
     <t>Gammadiae; G. pulex group</t>
   </si>
   <si>
-    <t>Gammarus_pulex</t>
+    <t>Gammaruspulex</t>
   </si>
   <si>
     <t>GHCO01</t>
@@ -1951,10 +1921,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1992,17 +1962,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2017,7 +1985,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2031,8 +1999,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2048,14 +2033,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -2063,15 +2040,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2086,6 +2055,36 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2106,35 +2105,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -2142,18 +2112,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -2169,19 +2127,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2205,13 +2163,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2223,7 +2247,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2235,13 +2259,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2253,19 +2277,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2277,55 +2295,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2354,17 +2324,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2383,6 +2347,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2413,6 +2392,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2427,138 +2421,114 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2567,19 +2537,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2588,16 +2558,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2968,9 +2938,9 @@
   <dimension ref="A1:U254"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A208" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I223" sqref="I223"/>
+      <selection pane="bottomLeft" activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3432,16 +3402,16 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E13" s="7">
         <v>59.7</v>
@@ -3468,7 +3438,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>19</v>
@@ -3477,13 +3447,13 @@
         <v>20</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E14" s="7">
         <v>57.2</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>17</v>
@@ -3504,7 +3474,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>19</v>
@@ -3513,13 +3483,13 @@
         <v>23</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E15" s="7">
         <v>58.4</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>17</v>
@@ -3540,22 +3510,22 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="8" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E16" s="7">
         <v>47.2</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>17</v>
@@ -3576,7 +3546,7 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>19</v>
@@ -3585,13 +3555,13 @@
         <v>20</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E17" s="7">
         <v>73</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>17</v>
@@ -3612,7 +3582,7 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>19</v>
@@ -3621,13 +3591,13 @@
         <v>23</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E18" s="7">
         <v>75.4</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>17</v>
@@ -3648,22 +3618,22 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="8" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E19" s="7">
         <v>61.1</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>17</v>
@@ -3684,7 +3654,7 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>19</v>
@@ -3693,13 +3663,13 @@
         <v>20</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E20" s="7">
         <v>50.9</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>17</v>
@@ -3720,7 +3690,7 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>19</v>
@@ -3729,13 +3699,13 @@
         <v>23</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E21" s="7">
         <v>54.1</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>17</v>
@@ -3756,22 +3726,22 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="8" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E22" s="7">
         <v>56.2</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>17</v>
@@ -3792,7 +3762,7 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>19</v>
@@ -3801,16 +3771,16 @@
         <v>20</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E23" s="7">
         <v>79.8</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H23" s="7" t="s">
         <v>22</v>
@@ -3822,13 +3792,13 @@
         <v>0</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L23" s="7"/>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>19</v>
@@ -3837,16 +3807,16 @@
         <v>23</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E24" s="7">
         <v>78.7</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H24" s="7" t="s">
         <v>22</v>
@@ -3858,34 +3828,34 @@
         <v>0</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L24" s="7"/>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="8" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E25" s="7">
         <v>79.8</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I25" s="7">
         <v>1</v>
@@ -3894,13 +3864,13 @@
         <v>0</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L25" s="7"/>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="7" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>19</v>
@@ -3909,13 +3879,13 @@
         <v>20</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E26" s="7">
         <v>61.1</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>17</v>
@@ -3936,7 +3906,7 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="7" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>19</v>
@@ -3945,13 +3915,13 @@
         <v>23</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E27" s="7">
         <v>63.7</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>17</v>
@@ -3972,22 +3942,22 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="8" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E28" s="7">
         <v>52.1</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>17</v>
@@ -4008,7 +3978,7 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>19</v>
@@ -4017,13 +3987,13 @@
         <v>20</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E29" s="7">
         <v>60.3</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>17</v>
@@ -4044,7 +4014,7 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>19</v>
@@ -4053,13 +4023,13 @@
         <v>23</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E30" s="7">
         <v>61.3</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>17</v>
@@ -4080,22 +4050,22 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="8" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E31" s="7">
         <v>53.5</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>17</v>
@@ -4116,7 +4086,7 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>19</v>
@@ -4125,13 +4095,13 @@
         <v>20</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E32" s="7">
         <v>40.1</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>17</v>
@@ -4152,7 +4122,7 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>19</v>
@@ -4161,13 +4131,13 @@
         <v>23</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E33" s="7">
         <v>43.7</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>17</v>
@@ -4188,22 +4158,22 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="8" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E34" s="7">
         <v>34.6</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>17</v>
@@ -4224,7 +4194,7 @@
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="7" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>19</v>
@@ -4233,13 +4203,13 @@
         <v>20</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E35" s="7">
         <v>53.2</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>17</v>
@@ -4260,7 +4230,7 @@
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="7" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>19</v>
@@ -4269,13 +4239,13 @@
         <v>23</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="E36" s="7">
         <v>57.1</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>17</v>
@@ -4296,22 +4266,22 @@
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="8" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="E37" s="7">
         <v>44.4</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>17</v>
@@ -4332,7 +4302,7 @@
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="7" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>19</v>
@@ -4341,16 +4311,16 @@
         <v>23</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E38" s="7">
         <v>91.7</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="H38" s="7" t="s">
         <v>22</v>
@@ -4362,34 +4332,34 @@
         <v>1</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="L38" s="7"/>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="8" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="E39" s="7">
         <v>91.4</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="I39" s="7">
         <v>2</v>
@@ -4398,34 +4368,34 @@
         <v>1</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="L39" s="7"/>
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="8" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E40" s="7">
         <v>95.4</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="I40" s="7">
         <v>2</v>
@@ -4434,34 +4404,34 @@
         <v>1</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="L40" s="7"/>
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="8" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="E41" s="7">
         <v>38.2</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="I41" s="7">
         <v>2</v>
@@ -4470,13 +4440,13 @@
         <v>0</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="L41" s="7"/>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="7" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>19</v>
@@ -4485,13 +4455,13 @@
         <v>20</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="E42" s="7">
         <v>64.6</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="G42" s="7" t="s">
         <v>17</v>
@@ -4506,13 +4476,13 @@
         <v>0</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="L42" s="7"/>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="7" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>19</v>
@@ -4521,13 +4491,13 @@
         <v>23</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="E43" s="7">
         <v>65.5</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="G43" s="7" t="s">
         <v>17</v>
@@ -4548,22 +4518,22 @@
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="8" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="E44" s="7">
         <v>55</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="G44" s="7" t="s">
         <v>17</v>
@@ -4584,7 +4554,7 @@
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="7" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>19</v>
@@ -4593,16 +4563,16 @@
         <v>23</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="E45" s="7">
         <v>87.1</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="H45" s="7" t="s">
         <v>22</v>
@@ -4614,34 +4584,34 @@
         <v>0</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="L45" s="7"/>
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="8" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="E46" s="7">
         <v>92.9</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="I46" s="7">
         <v>1</v>
@@ -4650,13 +4620,13 @@
         <v>0</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="L46" s="7"/>
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="7" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>19</v>
@@ -4665,13 +4635,13 @@
         <v>20</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="E47" s="7">
         <v>65.4</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="G47" s="7" t="s">
         <v>17</v>
@@ -4692,7 +4662,7 @@
     </row>
     <row r="48" spans="1:12">
       <c r="A48" s="7" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>19</v>
@@ -4701,13 +4671,13 @@
         <v>23</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="E48" s="7">
         <v>69</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="G48" s="7" t="s">
         <v>17</v>
@@ -4728,22 +4698,22 @@
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="8" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="E49" s="7">
         <v>53.1</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="G49" s="7" t="s">
         <v>17</v>
@@ -4764,7 +4734,7 @@
     </row>
     <row r="50" spans="1:12">
       <c r="A50" s="7" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>19</v>
@@ -4773,13 +4743,13 @@
         <v>20</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="E50" s="7">
         <v>83.4</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="G50" s="7" t="s">
         <v>17</v>
@@ -4800,7 +4770,7 @@
     </row>
     <row r="51" spans="1:12">
       <c r="A51" s="7" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="B51" s="7" t="s">
         <v>19</v>
@@ -4809,13 +4779,13 @@
         <v>20</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="E51" s="7">
         <v>75.1</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="G51" s="7" t="s">
         <v>17</v>
@@ -4836,7 +4806,7 @@
     </row>
     <row r="52" spans="1:12">
       <c r="A52" s="7" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>19</v>
@@ -4845,13 +4815,13 @@
         <v>23</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="E52" s="7">
         <v>78</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="G52" s="7" t="s">
         <v>17</v>
@@ -4872,7 +4842,7 @@
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="7" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>19</v>
@@ -4881,13 +4851,13 @@
         <v>23</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E53" s="7">
         <v>85.7</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="G53" s="7" t="s">
         <v>17</v>
@@ -4908,22 +4878,22 @@
     </row>
     <row r="54" spans="1:12">
       <c r="A54" s="8" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="E54" s="7">
         <v>64.2</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="G54" s="7" t="s">
         <v>17</v>
@@ -4944,22 +4914,22 @@
     </row>
     <row r="55" spans="1:12">
       <c r="A55" s="8" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="E55" s="7">
         <v>72.5</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="G55" s="7" t="s">
         <v>17</v>
@@ -4980,7 +4950,7 @@
     </row>
     <row r="56" spans="1:12">
       <c r="A56" s="7" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="B56" s="7" t="s">
         <v>19</v>
@@ -4989,13 +4959,13 @@
         <v>20</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="E56" s="7">
         <v>73</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="G56" s="7" t="s">
         <v>17</v>
@@ -5016,7 +4986,7 @@
     </row>
     <row r="57" spans="1:12">
       <c r="A57" s="7" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="B57" s="7" t="s">
         <v>19</v>
@@ -5025,13 +4995,13 @@
         <v>23</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="E57" s="7">
         <v>75.2</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="G57" s="7" t="s">
         <v>17</v>
@@ -5052,22 +5022,22 @@
     </row>
     <row r="58" spans="1:12">
       <c r="A58" s="8" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="E58" s="7">
         <v>64</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="G58" s="7" t="s">
         <v>17</v>
@@ -5088,28 +5058,28 @@
     </row>
     <row r="59" spans="1:12">
       <c r="A59" s="8" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="E59" s="7">
         <v>89.5</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="I59" s="7">
         <v>2</v>
@@ -5124,7 +5094,7 @@
     </row>
     <row r="60" spans="1:12">
       <c r="A60" s="7" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="B60" s="7" t="s">
         <v>19</v>
@@ -5133,13 +5103,13 @@
         <v>20</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="E60" s="7">
         <v>76</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="G60" s="7" t="s">
         <v>17</v>
@@ -5160,7 +5130,7 @@
     </row>
     <row r="61" spans="1:12">
       <c r="A61" s="7" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="B61" s="7" t="s">
         <v>19</v>
@@ -5169,13 +5139,13 @@
         <v>23</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="E61" s="7">
         <v>78.2</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="G61" s="7" t="s">
         <v>17</v>
@@ -5196,22 +5166,22 @@
     </row>
     <row r="62" spans="1:12">
       <c r="A62" s="8" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="E62" s="7">
         <v>65.3</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="G62" s="7" t="s">
         <v>17</v>
@@ -5232,7 +5202,7 @@
     </row>
     <row r="63" spans="1:12">
       <c r="A63" s="7" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>19</v>
@@ -5241,13 +5211,13 @@
         <v>20</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="E63" s="7">
         <v>70.6</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="G63" s="7" t="s">
         <v>17</v>
@@ -5268,7 +5238,7 @@
     </row>
     <row r="64" spans="1:12">
       <c r="A64" s="7" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="B64" s="7" t="s">
         <v>19</v>
@@ -5277,13 +5247,13 @@
         <v>23</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="E64" s="7">
         <v>72.3</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="G64" s="7" t="s">
         <v>17</v>
@@ -5304,22 +5274,22 @@
     </row>
     <row r="65" spans="1:12">
       <c r="A65" s="8" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="E65" s="7">
         <v>63.6</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="G65" s="7" t="s">
         <v>17</v>
@@ -5340,7 +5310,7 @@
     </row>
     <row r="66" spans="1:12">
       <c r="A66" s="7" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="B66" s="7" t="s">
         <v>19</v>
@@ -5349,13 +5319,13 @@
         <v>20</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="E66" s="7">
         <v>65.2</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="G66" s="7" t="s">
         <v>17</v>
@@ -5376,7 +5346,7 @@
     </row>
     <row r="67" spans="1:12">
       <c r="A67" s="7" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="B67" s="7" t="s">
         <v>19</v>
@@ -5385,13 +5355,13 @@
         <v>23</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="E67" s="7">
         <v>67.5</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="G67" s="7" t="s">
         <v>17</v>
@@ -5412,22 +5382,22 @@
     </row>
     <row r="68" spans="1:12">
       <c r="A68" s="8" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="E68" s="7">
         <v>57</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="G68" s="7" t="s">
         <v>17</v>
@@ -5448,7 +5418,7 @@
     </row>
     <row r="69" spans="1:12">
       <c r="A69" s="7" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="B69" s="7" t="s">
         <v>19</v>
@@ -5457,13 +5427,13 @@
         <v>20</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="E69" s="7">
         <v>78.9</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="G69" s="7" t="s">
         <v>17</v>
@@ -5484,7 +5454,7 @@
     </row>
     <row r="70" spans="1:12">
       <c r="A70" s="7" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="B70" s="7" t="s">
         <v>19</v>
@@ -5493,13 +5463,13 @@
         <v>23</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="E70" s="7">
         <v>82.2</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="G70" s="7" t="s">
         <v>17</v>
@@ -5520,22 +5490,22 @@
     </row>
     <row r="71" spans="1:12">
       <c r="A71" s="8" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="E71" s="7">
         <v>66.1</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="G71" s="7" t="s">
         <v>17</v>
@@ -5556,7 +5526,7 @@
     </row>
     <row r="72" spans="1:12">
       <c r="A72" s="7" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="B72" s="7" t="s">
         <v>19</v>
@@ -5565,13 +5535,13 @@
         <v>20</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="E72" s="7">
         <v>38.8</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="G72" s="7" t="s">
         <v>17</v>
@@ -5592,7 +5562,7 @@
     </row>
     <row r="73" spans="1:12">
       <c r="A73" s="7" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="B73" s="7" t="s">
         <v>19</v>
@@ -5601,13 +5571,13 @@
         <v>23</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="E73" s="7">
         <v>41.7</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="G73" s="7" t="s">
         <v>17</v>
@@ -5628,22 +5598,22 @@
     </row>
     <row r="74" spans="1:12">
       <c r="A74" s="8" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="C74" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="E74" s="7">
         <v>32.8</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="G74" s="7" t="s">
         <v>17</v>
@@ -5664,7 +5634,7 @@
     </row>
     <row r="75" spans="1:12">
       <c r="A75" s="7" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="B75" s="7" t="s">
         <v>19</v>
@@ -5673,13 +5643,13 @@
         <v>20</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="E75" s="7">
         <v>81.1</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="G75" s="7" t="s">
         <v>17</v>
@@ -5700,7 +5670,7 @@
     </row>
     <row r="76" spans="1:12">
       <c r="A76" s="7" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="B76" s="7" t="s">
         <v>19</v>
@@ -5709,13 +5679,13 @@
         <v>23</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="E76" s="7">
         <v>82.4</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="G76" s="7" t="s">
         <v>17</v>
@@ -5736,22 +5706,22 @@
     </row>
     <row r="77" spans="1:12">
       <c r="A77" s="8" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="E77" s="7">
         <v>68.1</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="G77" s="7" t="s">
         <v>17</v>
@@ -5772,7 +5742,7 @@
     </row>
     <row r="78" spans="1:12">
       <c r="A78" s="7" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="B78" s="7" t="s">
         <v>19</v>
@@ -5781,13 +5751,13 @@
         <v>20</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="E78" s="7">
         <v>77.3</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="G78" s="7" t="s">
         <v>17</v>
@@ -5808,7 +5778,7 @@
     </row>
     <row r="79" spans="1:12">
       <c r="A79" s="7" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="B79" s="7" t="s">
         <v>19</v>
@@ -5817,13 +5787,13 @@
         <v>23</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="E79" s="7">
         <v>79.8</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="G79" s="7" t="s">
         <v>17</v>
@@ -5844,22 +5814,22 @@
     </row>
     <row r="80" spans="1:12">
       <c r="A80" s="8" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="E80" s="7">
         <v>67.3</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="G80" s="7" t="s">
         <v>17</v>
@@ -5880,7 +5850,7 @@
     </row>
     <row r="81" spans="1:12">
       <c r="A81" s="7" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="B81" s="7" t="s">
         <v>19</v>
@@ -5889,13 +5859,13 @@
         <v>20</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="E81" s="7">
         <v>69.8</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="G81" s="7" t="s">
         <v>17</v>
@@ -5916,7 +5886,7 @@
     </row>
     <row r="82" spans="1:12">
       <c r="A82" s="7" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="B82" s="7" t="s">
         <v>19</v>
@@ -5925,13 +5895,13 @@
         <v>23</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="E82" s="7">
         <v>73.3</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="G82" s="7" t="s">
         <v>17</v>
@@ -5952,22 +5922,22 @@
     </row>
     <row r="83" spans="1:12">
       <c r="A83" s="8" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="E83" s="7">
         <v>58.6</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="G83" s="7" t="s">
         <v>17</v>
@@ -5988,7 +5958,7 @@
     </row>
     <row r="84" spans="1:12">
       <c r="A84" s="7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="B84" s="7" t="s">
         <v>19</v>
@@ -5997,13 +5967,13 @@
         <v>20</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="E84" s="7">
         <v>83.5</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="G84" s="7" t="s">
         <v>17</v>
@@ -6024,7 +5994,7 @@
     </row>
     <row r="85" spans="1:12">
       <c r="A85" s="7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="B85" s="7" t="s">
         <v>19</v>
@@ -6033,13 +6003,13 @@
         <v>23</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="E85" s="7">
         <v>85.4</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="G85" s="7" t="s">
         <v>17</v>
@@ -6060,22 +6030,22 @@
     </row>
     <row r="86" spans="1:12">
       <c r="A86" s="8" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="E86" s="7">
         <v>71</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="G86" s="7" t="s">
         <v>17</v>
@@ -6096,28 +6066,28 @@
     </row>
     <row r="87" spans="1:12">
       <c r="A87" s="8" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="E87" s="7">
         <v>88.1</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="H87" s="7" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="I87" s="7">
         <v>2</v>
@@ -6132,7 +6102,7 @@
     </row>
     <row r="88" spans="1:12">
       <c r="A88" s="7" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="B88" s="7" t="s">
         <v>19</v>
@@ -6141,13 +6111,13 @@
         <v>20</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="E88" s="7">
         <v>68.4</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="G88" s="7" t="s">
         <v>17</v>
@@ -6168,7 +6138,7 @@
     </row>
     <row r="89" spans="1:12">
       <c r="A89" s="7" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="B89" s="7" t="s">
         <v>19</v>
@@ -6177,13 +6147,13 @@
         <v>23</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="E89" s="7">
         <v>70.7</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="G89" s="7" t="s">
         <v>17</v>
@@ -6204,22 +6174,22 @@
     </row>
     <row r="90" spans="1:12">
       <c r="A90" s="8" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="E90" s="7">
         <v>57.5</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="G90" s="7" t="s">
         <v>17</v>
@@ -6240,7 +6210,7 @@
     </row>
     <row r="91" spans="1:12">
       <c r="A91" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="B91" s="7" t="s">
         <v>19</v>
@@ -6249,13 +6219,13 @@
         <v>20</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="E91" s="7">
         <v>77.6</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="G91" s="7" t="s">
         <v>17</v>
@@ -6276,7 +6246,7 @@
     </row>
     <row r="92" spans="1:12">
       <c r="A92" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="B92" s="7" t="s">
         <v>19</v>
@@ -6285,13 +6255,13 @@
         <v>23</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="E92" s="7">
         <v>80</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="G92" s="7" t="s">
         <v>17</v>
@@ -6312,22 +6282,22 @@
     </row>
     <row r="93" spans="1:12">
       <c r="A93" s="8" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="C93" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="E93" s="7">
         <v>66.7</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="G93" s="7" t="s">
         <v>17</v>
@@ -6348,7 +6318,7 @@
     </row>
     <row r="94" spans="1:12">
       <c r="A94" s="7" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="B94" s="7" t="s">
         <v>19</v>
@@ -6357,13 +6327,13 @@
         <v>20</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E94" s="7">
         <v>67.2</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="G94" s="7" t="s">
         <v>17</v>
@@ -6384,7 +6354,7 @@
     </row>
     <row r="95" spans="1:12">
       <c r="A95" s="7" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="B95" s="7" t="s">
         <v>19</v>
@@ -6393,13 +6363,13 @@
         <v>23</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="E95" s="7">
         <v>70</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="G95" s="7" t="s">
         <v>17</v>
@@ -6420,22 +6390,22 @@
     </row>
     <row r="96" spans="1:12">
       <c r="A96" s="8" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="C96" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="E96" s="7">
         <v>57</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="G96" s="7" t="s">
         <v>17</v>
@@ -6456,7 +6426,7 @@
     </row>
     <row r="97" spans="1:12">
       <c r="A97" s="7" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="B97" s="7" t="s">
         <v>19</v>
@@ -6465,16 +6435,16 @@
         <v>23</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="E97" s="7">
         <v>79.7</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>106</v>
+        <v>246</v>
       </c>
       <c r="H97" s="7" t="s">
         <v>22</v>
@@ -6486,34 +6456,34 @@
         <v>1</v>
       </c>
       <c r="K97" s="7" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="L97" s="7"/>
     </row>
     <row r="98" spans="1:12">
       <c r="A98" s="8" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="E98" s="7">
         <v>87.1</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>106</v>
+        <v>246</v>
       </c>
       <c r="H98" s="7" t="s">
-        <v>106</v>
+        <v>246</v>
       </c>
       <c r="I98" s="7">
         <v>2</v>
@@ -6522,34 +6492,34 @@
         <v>1</v>
       </c>
       <c r="K98" s="7" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="L98" s="7"/>
     </row>
     <row r="99" spans="1:12">
       <c r="A99" s="8" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="E99" s="7">
         <v>93.3</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="H99" s="7" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="I99" s="7">
         <v>2</v>
@@ -6558,13 +6528,13 @@
         <v>1</v>
       </c>
       <c r="K99" s="7" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="L99" s="7"/>
     </row>
     <row r="100" spans="1:12">
       <c r="A100" s="7" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="B100" s="7" t="s">
         <v>19</v>
@@ -6573,16 +6543,16 @@
         <v>23</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="E100" s="7">
         <v>95.4</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="H100" s="7" t="s">
         <v>22</v>
@@ -6594,34 +6564,34 @@
         <v>1</v>
       </c>
       <c r="K100" s="7" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="L100" s="7"/>
     </row>
     <row r="101" spans="1:12">
       <c r="A101" s="8" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="E101" s="7">
         <v>80.3</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="G101" s="7" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="H101" s="7" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="I101" s="7">
         <v>3</v>
@@ -6630,34 +6600,34 @@
         <v>1</v>
       </c>
       <c r="K101" s="7" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="L101" s="7"/>
     </row>
     <row r="102" spans="1:12">
       <c r="A102" s="8" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="E102" s="7">
         <v>95.4</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="G102" s="7" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="H102" s="7" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="I102" s="7">
         <v>4</v>
@@ -6666,34 +6636,34 @@
         <v>1</v>
       </c>
       <c r="K102" s="7" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="L102" s="7"/>
     </row>
     <row r="103" spans="1:12">
       <c r="A103" s="8" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="E103" s="7">
         <v>94.9</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="G103" s="7" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="H103" s="7" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="I103" s="7">
         <v>3</v>
@@ -6702,34 +6672,34 @@
         <v>1</v>
       </c>
       <c r="K103" s="7" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="L103" s="7"/>
     </row>
     <row r="104" spans="1:12">
       <c r="A104" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D104" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="B104" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="C104" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D104" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="E104" s="7">
         <v>94.5</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="G104" s="7" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="H104" s="7" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="I104" s="7">
         <v>3</v>
@@ -6738,34 +6708,34 @@
         <v>2</v>
       </c>
       <c r="K104" s="7" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="L104" s="7"/>
     </row>
     <row r="105" spans="1:12">
       <c r="A105" s="8" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="E105" s="7">
         <v>93.1</v>
       </c>
       <c r="F105" s="7" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="G105" s="7" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="H105" s="7" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="I105" s="7">
         <v>2</v>
@@ -6774,34 +6744,34 @@
         <v>1</v>
       </c>
       <c r="K105" s="7" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="L105" s="7"/>
     </row>
     <row r="106" spans="1:12">
       <c r="A106" s="8" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="E106" s="7">
         <v>93.3</v>
       </c>
       <c r="F106" s="7" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="G106" s="7" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="H106" s="7" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="I106" s="7">
         <v>3</v>
@@ -6810,13 +6780,13 @@
         <v>1</v>
       </c>
       <c r="K106" s="7" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="L106" s="7"/>
     </row>
     <row r="107" spans="1:12">
       <c r="A107" s="7" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="B107" s="7" t="s">
         <v>19</v>
@@ -6825,13 +6795,13 @@
         <v>20</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="E107" s="7">
         <v>52.2</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="G107" s="7" t="s">
         <v>17</v>
@@ -6846,13 +6816,13 @@
         <v>0</v>
       </c>
       <c r="K107" s="7" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="L107" s="7"/>
     </row>
     <row r="108" spans="1:12">
       <c r="A108" s="7" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="B108" s="7" t="s">
         <v>19</v>
@@ -6861,13 +6831,13 @@
         <v>23</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="E108" s="7">
         <v>56.1</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="G108" s="7" t="s">
         <v>17</v>
@@ -6882,28 +6852,28 @@
         <v>0</v>
       </c>
       <c r="K108" s="7" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="L108" s="7"/>
     </row>
     <row r="109" spans="1:12">
       <c r="A109" s="8" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="C109" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="E109" s="7">
         <v>68</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="G109" s="7" t="s">
         <v>17</v>
@@ -6918,34 +6888,34 @@
         <v>0</v>
       </c>
       <c r="K109" s="7" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="L109" s="7"/>
     </row>
     <row r="110" spans="1:12">
       <c r="A110" s="8" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="E110" s="7">
         <v>90</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="H110" s="7" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="I110" s="7">
         <v>2</v>
@@ -6954,31 +6924,31 @@
         <v>0</v>
       </c>
       <c r="K110" s="7" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="L110" s="7"/>
     </row>
     <row r="111" spans="1:12">
       <c r="A111" s="7" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="B111" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="E111" s="7">
         <v>96.2</v>
       </c>
       <c r="F111" s="7" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="G111" s="7" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="H111" s="7" t="s">
         <v>22</v>
@@ -6990,13 +6960,13 @@
         <v>0</v>
       </c>
       <c r="K111" s="7" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="L111" s="7"/>
     </row>
     <row r="112" spans="1:12">
       <c r="A112" s="7" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="B112" s="7" t="s">
         <v>19</v>
@@ -7005,16 +6975,16 @@
         <v>23</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="E112" s="7">
         <v>95.8</v>
       </c>
       <c r="F112" s="7" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="G112" s="7" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="H112" s="7" t="s">
         <v>22</v>
@@ -7026,13 +6996,13 @@
         <v>0</v>
       </c>
       <c r="K112" s="7" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="L112" s="7"/>
     </row>
     <row r="113" spans="1:12">
       <c r="A113" s="7" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="B113" s="7" t="s">
         <v>19</v>
@@ -7041,16 +7011,16 @@
         <v>20</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="E113" s="7">
         <v>76.9</v>
       </c>
       <c r="F113" s="7" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="G113" s="7" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="H113" s="7" t="s">
         <v>22</v>
@@ -7062,13 +7032,13 @@
         <v>0</v>
       </c>
       <c r="K113" s="7" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="L113" s="7"/>
     </row>
     <row r="114" spans="1:12">
       <c r="A114" s="7" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="B114" s="7" t="s">
         <v>19</v>
@@ -7077,16 +7047,16 @@
         <v>23</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="E114" s="7">
         <v>71.2</v>
       </c>
       <c r="F114" s="7" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="G114" s="7" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="H114" s="7" t="s">
         <v>22</v>
@@ -7098,13 +7068,13 @@
         <v>0</v>
       </c>
       <c r="K114" s="7" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="L114" s="7"/>
     </row>
     <row r="115" spans="1:12">
       <c r="A115" s="7" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="B115" s="7" t="s">
         <v>19</v>
@@ -7113,16 +7083,16 @@
         <v>23</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="E115" s="7">
         <v>95.2</v>
       </c>
       <c r="F115" s="7" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="G115" s="7" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="H115" s="7" t="s">
         <v>22</v>
@@ -7134,34 +7104,34 @@
         <v>1</v>
       </c>
       <c r="K115" s="7" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="L115" s="7"/>
     </row>
     <row r="116" spans="1:12">
       <c r="A116" s="8" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="E116" s="7">
         <v>92.7</v>
       </c>
       <c r="F116" s="7" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="G116" s="7" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="H116" s="7" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="I116" s="7">
         <v>3</v>
@@ -7170,34 +7140,34 @@
         <v>1</v>
       </c>
       <c r="K116" s="7" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="L116" s="7"/>
     </row>
     <row r="117" spans="1:12">
       <c r="A117" s="8" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="E117" s="7">
         <v>84.6</v>
       </c>
       <c r="F117" s="7" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="G117" s="7" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="H117" s="7" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="I117" s="7">
         <v>2</v>
@@ -7206,34 +7176,34 @@
         <v>1</v>
       </c>
       <c r="K117" s="7" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="L117" s="7"/>
     </row>
     <row r="118" spans="1:12">
       <c r="A118" s="8" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="E118" s="7">
         <v>75</v>
       </c>
       <c r="F118" s="7" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="G118" s="7" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="H118" s="7" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="I118" s="7">
         <v>2</v>
@@ -7242,34 +7212,34 @@
         <v>1</v>
       </c>
       <c r="K118" s="7" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="L118" s="7"/>
     </row>
     <row r="119" spans="1:12">
       <c r="A119" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="B119" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="B119" s="7" t="s">
-        <v>329</v>
-      </c>
       <c r="C119" s="7" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D119" s="7" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="E119" s="7">
         <v>90.7</v>
       </c>
       <c r="F119" s="7" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="G119" s="7" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="H119" s="7" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="I119" s="7">
         <v>2</v>
@@ -7278,34 +7248,34 @@
         <v>1</v>
       </c>
       <c r="K119" s="7" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="L119" s="7"/>
     </row>
     <row r="120" spans="1:12">
       <c r="A120" s="7" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="E120" s="7">
         <v>87.7</v>
       </c>
       <c r="F120" s="7" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="G120" s="7" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="H120" s="7" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="I120" s="7">
         <v>3</v>
@@ -7314,34 +7284,34 @@
         <v>1</v>
       </c>
       <c r="K120" s="7" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="L120" s="7"/>
     </row>
     <row r="121" spans="1:12">
       <c r="A121" s="7" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="E121" s="7">
         <v>91.4</v>
       </c>
       <c r="F121" s="7" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="G121" s="7" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="H121" s="7" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="I121" s="7">
         <v>3</v>
@@ -7350,13 +7320,13 @@
         <v>1</v>
       </c>
       <c r="K121" s="7" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="L121" s="7"/>
     </row>
     <row r="122" spans="1:12">
       <c r="A122" s="7" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="B122" s="7" t="s">
         <v>19</v>
@@ -7365,16 +7335,16 @@
         <v>23</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="E122" s="7">
         <v>92.3</v>
       </c>
       <c r="F122" s="7" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="G122" s="7" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="H122" s="7" t="s">
         <v>22</v>
@@ -7386,28 +7356,28 @@
         <v>1</v>
       </c>
       <c r="K122" s="7" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="L122" s="7"/>
     </row>
     <row r="123" spans="1:12">
       <c r="A123" s="7" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="C123" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="E123" s="7">
         <v>51.9</v>
       </c>
       <c r="F123" s="7" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="G123" s="7" t="s">
         <v>17</v>
@@ -7428,7 +7398,7 @@
     </row>
     <row r="124" spans="1:12">
       <c r="A124" s="7" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="B124" s="7" t="s">
         <v>19</v>
@@ -7437,13 +7407,13 @@
         <v>20</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="E124" s="7">
         <v>61.3</v>
       </c>
       <c r="F124" s="7" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="G124" s="7" t="s">
         <v>17</v>
@@ -7464,7 +7434,7 @@
     </row>
     <row r="125" spans="1:12">
       <c r="A125" s="7" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="B125" s="7" t="s">
         <v>19</v>
@@ -7473,13 +7443,13 @@
         <v>23</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="E125" s="7">
         <v>64</v>
       </c>
       <c r="F125" s="7" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="G125" s="7" t="s">
         <v>17</v>
@@ -7500,22 +7470,22 @@
     </row>
     <row r="126" spans="1:12">
       <c r="A126" s="7" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="C126" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="E126" s="7">
         <v>67</v>
       </c>
       <c r="F126" s="7" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="G126" s="7" t="s">
         <v>17</v>
@@ -7536,7 +7506,7 @@
     </row>
     <row r="127" spans="1:12">
       <c r="A127" s="7" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="B127" s="7" t="s">
         <v>19</v>
@@ -7545,13 +7515,13 @@
         <v>20</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="E127" s="7">
         <v>78.1</v>
       </c>
       <c r="F127" s="7" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="G127" s="7" t="s">
         <v>17</v>
@@ -7572,7 +7542,7 @@
     </row>
     <row r="128" spans="1:12">
       <c r="A128" s="7" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="B128" s="7" t="s">
         <v>19</v>
@@ -7581,13 +7551,13 @@
         <v>23</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="E128" s="7">
         <v>79.8</v>
       </c>
       <c r="F128" s="7" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="G128" s="7" t="s">
         <v>17</v>
@@ -7608,7 +7578,7 @@
     </row>
     <row r="129" spans="1:12">
       <c r="A129" s="7" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="B129" s="7" t="s">
         <v>19</v>
@@ -7617,16 +7587,16 @@
         <v>23</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="E129" s="7">
         <v>86.9</v>
       </c>
       <c r="F129" s="7" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="G129" s="6" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="H129" s="7" t="s">
         <v>22</v>
@@ -7638,13 +7608,13 @@
         <v>1</v>
       </c>
       <c r="K129" s="7" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="L129" s="7"/>
     </row>
     <row r="130" spans="1:12">
       <c r="A130" s="7" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="B130" s="7" t="s">
         <v>19</v>
@@ -7653,16 +7623,16 @@
         <v>20</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="E130" s="7">
         <v>87.7</v>
       </c>
       <c r="F130" s="7" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="G130" s="6" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="H130" s="7" t="s">
         <v>22</v>
@@ -7674,34 +7644,34 @@
         <v>1</v>
       </c>
       <c r="K130" s="7" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="L130" s="7"/>
     </row>
     <row r="131" spans="1:12">
       <c r="A131" s="7" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="D131" s="7" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="E131" s="7">
         <v>44.7</v>
       </c>
       <c r="F131" s="7" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="G131" s="7" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="H131" s="7" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="I131" s="7">
         <v>0</v>
@@ -7710,28 +7680,28 @@
         <v>0</v>
       </c>
       <c r="K131" s="7" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="L131" s="7"/>
     </row>
     <row r="132" spans="1:12">
       <c r="A132" s="7" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="C132" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="E132" s="7">
         <v>73.4</v>
       </c>
       <c r="F132" s="7" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="G132" s="7" t="s">
         <v>17</v>
@@ -7752,7 +7722,7 @@
     </row>
     <row r="133" spans="1:12">
       <c r="A133" s="7" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="B133" s="7" t="s">
         <v>19</v>
@@ -7761,13 +7731,13 @@
         <v>20</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="E133" s="7">
         <v>83</v>
       </c>
       <c r="F133" s="7" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="G133" s="7" t="s">
         <v>17</v>
@@ -7788,7 +7758,7 @@
     </row>
     <row r="134" spans="1:12">
       <c r="A134" s="7" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="B134" s="7" t="s">
         <v>19</v>
@@ -7797,13 +7767,13 @@
         <v>23</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="E134" s="7">
         <v>84.8</v>
       </c>
       <c r="F134" s="7" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="G134" s="7" t="s">
         <v>17</v>
@@ -7824,28 +7794,28 @@
     </row>
     <row r="135" spans="1:12">
       <c r="A135" s="7" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="E135" s="7">
         <v>91.2</v>
       </c>
       <c r="F135" s="7" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="G135" s="7" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="H135" s="7" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="I135" s="7">
         <v>0</v>
@@ -7854,36 +7824,36 @@
         <v>0</v>
       </c>
       <c r="K135" s="7" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="L135" s="7" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
     </row>
     <row r="136" spans="1:12">
       <c r="A136" s="7" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="E136" s="7">
         <v>70.9</v>
       </c>
       <c r="F136" s="7" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="G136" s="7" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="H136" s="7" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="I136" s="7">
         <v>1</v>
@@ -7892,15 +7862,15 @@
         <v>0</v>
       </c>
       <c r="K136" s="7" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="L136" s="7" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
     </row>
     <row r="137" spans="1:12">
       <c r="A137" s="7" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="B137" s="7" t="s">
         <v>19</v>
@@ -7909,16 +7879,16 @@
         <v>23</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="E137" s="7">
         <v>64.7</v>
       </c>
       <c r="F137" s="7" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="G137" s="7" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="H137" s="7" t="s">
         <v>22</v>
@@ -7930,30 +7900,30 @@
         <v>0</v>
       </c>
       <c r="K137" s="7" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="L137" s="7" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
     </row>
     <row r="138" spans="1:12">
       <c r="A138" s="7" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="C138" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="E138" s="7">
         <v>46.6</v>
       </c>
       <c r="F138" s="7" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="G138" s="7" t="s">
         <v>17</v>
@@ -7974,7 +7944,7 @@
     </row>
     <row r="139" spans="1:12">
       <c r="A139" s="7" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="B139" s="7" t="s">
         <v>19</v>
@@ -7983,13 +7953,13 @@
         <v>20</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="E139" s="7">
         <v>53.1</v>
       </c>
       <c r="F139" s="7" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="G139" s="7" t="s">
         <v>17</v>
@@ -8010,7 +7980,7 @@
     </row>
     <row r="140" spans="1:12">
       <c r="A140" s="7" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="B140" s="7" t="s">
         <v>19</v>
@@ -8019,13 +7989,13 @@
         <v>23</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="E140" s="7">
         <v>55.8</v>
       </c>
       <c r="F140" s="7" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="G140" s="7" t="s">
         <v>17</v>
@@ -8046,28 +8016,28 @@
     </row>
     <row r="141" spans="1:12">
       <c r="A141" s="7" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="D141" s="7" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="E141" s="7">
         <v>11.9</v>
       </c>
       <c r="F141" s="7" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="G141" s="7" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="H141" s="7" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="I141" s="7">
         <v>0</v>
@@ -8076,34 +8046,34 @@
         <v>0</v>
       </c>
       <c r="K141" s="7" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="L141" s="7"/>
     </row>
     <row r="142" spans="1:12">
       <c r="A142" s="7" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="C142" s="7" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="E142" s="7">
         <v>14</v>
       </c>
       <c r="F142" s="7" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="G142" s="7" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="H142" s="7" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="I142" s="7">
         <v>0</v>
@@ -8112,34 +8082,34 @@
         <v>1</v>
       </c>
       <c r="K142" s="7" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="L142" s="7"/>
     </row>
     <row r="143" spans="1:12">
       <c r="A143" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="D143" s="6" t="s">
         <v>391</v>
-      </c>
-      <c r="B143" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="C143" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="D143" s="6" t="s">
-        <v>402</v>
       </c>
       <c r="E143" s="7">
         <v>36.9</v>
       </c>
       <c r="F143" s="7" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="G143" s="7" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="H143" s="7" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="I143" s="7">
         <v>0</v>
@@ -8148,13 +8118,13 @@
         <v>0</v>
       </c>
       <c r="K143" s="7" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="L143" s="7"/>
     </row>
     <row r="144" spans="1:12">
       <c r="A144" s="7" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="B144" s="7" t="s">
         <v>19</v>
@@ -8163,16 +8133,16 @@
         <v>20</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="E144" s="7">
         <v>72.9</v>
       </c>
       <c r="F144" s="7" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="G144" s="7" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="H144" s="7" t="s">
         <v>22</v>
@@ -8184,13 +8154,13 @@
         <v>1</v>
       </c>
       <c r="K144" s="7" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="L144" s="7"/>
     </row>
     <row r="145" spans="1:12">
       <c r="A145" s="7" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="B145" s="7" t="s">
         <v>19</v>
@@ -8199,16 +8169,16 @@
         <v>23</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="E145" s="7">
         <v>86.9</v>
       </c>
       <c r="F145" s="7" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="G145" s="7" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="H145" s="7" t="s">
         <v>22</v>
@@ -8220,28 +8190,28 @@
         <v>1</v>
       </c>
       <c r="K145" s="7" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="L145" s="7"/>
     </row>
     <row r="146" spans="1:12">
       <c r="A146" s="7" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="C146" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="E146" s="7">
         <v>65</v>
       </c>
       <c r="F146" s="7" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="G146" s="7" t="s">
         <v>17</v>
@@ -8262,7 +8232,7 @@
     </row>
     <row r="147" spans="1:12">
       <c r="A147" s="7" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="B147" s="7" t="s">
         <v>19</v>
@@ -8271,13 +8241,13 @@
         <v>20</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="E147" s="7">
         <v>73.7</v>
       </c>
       <c r="F147" s="7" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="G147" s="7" t="s">
         <v>17</v>
@@ -8298,7 +8268,7 @@
     </row>
     <row r="148" spans="1:12">
       <c r="A148" s="7" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="B148" s="7" t="s">
         <v>19</v>
@@ -8307,13 +8277,13 @@
         <v>23</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="E148" s="7">
         <v>75</v>
       </c>
       <c r="F148" s="7" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="G148" s="7" t="s">
         <v>17</v>
@@ -8334,22 +8304,22 @@
     </row>
     <row r="149" spans="1:12">
       <c r="A149" s="7" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="C149" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="E149" s="7">
         <v>59.2</v>
       </c>
       <c r="F149" s="7" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="G149" s="7" t="s">
         <v>17</v>
@@ -8370,7 +8340,7 @@
     </row>
     <row r="150" spans="1:12">
       <c r="A150" s="7" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="B150" s="7" t="s">
         <v>19</v>
@@ -8379,13 +8349,13 @@
         <v>20</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="E150" s="7">
         <v>66</v>
       </c>
       <c r="F150" s="7" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="G150" s="7" t="s">
         <v>17</v>
@@ -8406,7 +8376,7 @@
     </row>
     <row r="151" spans="1:12">
       <c r="A151" s="7" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="B151" s="7" t="s">
         <v>19</v>
@@ -8415,13 +8385,13 @@
         <v>23</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="E151" s="7">
         <v>69.4</v>
       </c>
       <c r="F151" s="7" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="G151" s="7" t="s">
         <v>17</v>
@@ -8442,22 +8412,22 @@
     </row>
     <row r="152" spans="1:12">
       <c r="A152" s="7" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="C152" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="E152" s="7">
         <v>64.4</v>
       </c>
       <c r="F152" s="7" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="G152" s="7" t="s">
         <v>17</v>
@@ -8478,7 +8448,7 @@
     </row>
     <row r="153" spans="1:12">
       <c r="A153" s="7" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="B153" s="7" t="s">
         <v>19</v>
@@ -8487,13 +8457,13 @@
         <v>20</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="E153" s="7">
         <v>71.6</v>
       </c>
       <c r="F153" s="7" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="G153" s="7" t="s">
         <v>17</v>
@@ -8514,7 +8484,7 @@
     </row>
     <row r="154" spans="1:12">
       <c r="A154" s="7" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="B154" s="7" t="s">
         <v>19</v>
@@ -8523,13 +8493,13 @@
         <v>23</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="E154" s="7">
         <v>75.8</v>
       </c>
       <c r="F154" s="7" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="G154" s="7" t="s">
         <v>17</v>
@@ -8550,22 +8520,22 @@
     </row>
     <row r="155" spans="1:12">
       <c r="A155" s="7" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="C155" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="E155" s="7">
         <v>70.2</v>
       </c>
       <c r="F155" s="7" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="G155" s="7" t="s">
         <v>17</v>
@@ -8586,7 +8556,7 @@
     </row>
     <row r="156" spans="1:12">
       <c r="A156" s="7" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="B156" s="7" t="s">
         <v>19</v>
@@ -8595,13 +8565,13 @@
         <v>20</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="E156" s="7">
         <v>64.4</v>
       </c>
       <c r="F156" s="7" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="G156" s="7" t="s">
         <v>17</v>
@@ -8622,7 +8592,7 @@
     </row>
     <row r="157" spans="1:12">
       <c r="A157" s="7" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="B157" s="7" t="s">
         <v>19</v>
@@ -8631,13 +8601,13 @@
         <v>23</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="E157" s="7">
         <v>67.8</v>
       </c>
       <c r="F157" s="7" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="G157" s="7" t="s">
         <v>17</v>
@@ -8658,22 +8628,22 @@
     </row>
     <row r="158" spans="1:12">
       <c r="A158" s="7" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="C158" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="E158" s="7">
         <v>59.8</v>
       </c>
       <c r="F158" s="7" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="G158" s="7" t="s">
         <v>17</v>
@@ -8694,7 +8664,7 @@
     </row>
     <row r="159" spans="1:12">
       <c r="A159" s="7" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="B159" s="7" t="s">
         <v>19</v>
@@ -8703,13 +8673,13 @@
         <v>20</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="E159" s="7">
         <v>70.3</v>
       </c>
       <c r="F159" s="7" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="G159" s="7" t="s">
         <v>17</v>
@@ -8730,7 +8700,7 @@
     </row>
     <row r="160" spans="1:12">
       <c r="A160" s="7" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="B160" s="7" t="s">
         <v>19</v>
@@ -8739,13 +8709,13 @@
         <v>23</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="E160" s="7">
         <v>73.7</v>
       </c>
       <c r="F160" s="7" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="G160" s="7" t="s">
         <v>17</v>
@@ -8766,22 +8736,22 @@
     </row>
     <row r="161" spans="1:12">
       <c r="A161" s="7" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="C161" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D161" s="6" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="E161" s="7">
         <v>72.7</v>
       </c>
       <c r="F161" s="7" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="G161" s="7" t="s">
         <v>17</v>
@@ -8802,7 +8772,7 @@
     </row>
     <row r="162" spans="1:12">
       <c r="A162" s="7" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="B162" s="7" t="s">
         <v>19</v>
@@ -8811,13 +8781,13 @@
         <v>20</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="E162" s="7">
         <v>83.7</v>
       </c>
       <c r="F162" s="7" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="G162" s="7" t="s">
         <v>17</v>
@@ -8838,7 +8808,7 @@
     </row>
     <row r="163" spans="1:12">
       <c r="A163" s="7" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="B163" s="7" t="s">
         <v>19</v>
@@ -8847,13 +8817,13 @@
         <v>23</v>
       </c>
       <c r="D163" s="6" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="E163" s="7">
         <v>85.4</v>
       </c>
       <c r="F163" s="7" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="G163" s="7" t="s">
         <v>17</v>
@@ -8874,22 +8844,22 @@
     </row>
     <row r="164" spans="1:12">
       <c r="A164" s="7" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="C164" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="E164" s="7">
         <v>45.3</v>
       </c>
       <c r="F164" s="7" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="G164" s="7" t="s">
         <v>17</v>
@@ -8910,7 +8880,7 @@
     </row>
     <row r="165" spans="1:12">
       <c r="A165" s="7" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="B165" s="7" t="s">
         <v>19</v>
@@ -8919,13 +8889,13 @@
         <v>20</v>
       </c>
       <c r="D165" s="6" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="E165" s="7">
         <v>53.8</v>
       </c>
       <c r="F165" s="7" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="G165" s="7" t="s">
         <v>17</v>
@@ -8946,7 +8916,7 @@
     </row>
     <row r="166" spans="1:12">
       <c r="A166" s="7" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="B166" s="7" t="s">
         <v>19</v>
@@ -8955,13 +8925,13 @@
         <v>23</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="E166" s="7">
         <v>56.3</v>
       </c>
       <c r="F166" s="7" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="G166" s="7" t="s">
         <v>17</v>
@@ -8982,22 +8952,22 @@
     </row>
     <row r="167" spans="1:12">
       <c r="A167" s="7" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="C167" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D167" s="6" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="E167" s="7">
         <v>72.3</v>
       </c>
       <c r="F167" s="7" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="G167" s="7" t="s">
         <v>17</v>
@@ -9018,7 +8988,7 @@
     </row>
     <row r="168" spans="1:12">
       <c r="A168" s="7" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="B168" s="7" t="s">
         <v>19</v>
@@ -9027,13 +8997,13 @@
         <v>20</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="E168" s="7">
         <v>85.2</v>
       </c>
       <c r="F168" s="7" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="G168" s="7" t="s">
         <v>17</v>
@@ -9054,7 +9024,7 @@
     </row>
     <row r="169" spans="1:12">
       <c r="A169" s="7" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="B169" s="7" t="s">
         <v>19</v>
@@ -9063,13 +9033,13 @@
         <v>23</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="E169" s="7">
         <v>87.1</v>
       </c>
       <c r="F169" s="7" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="G169" s="7" t="s">
         <v>17</v>
@@ -9090,22 +9060,22 @@
     </row>
     <row r="170" spans="1:12">
       <c r="A170" s="7" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="C170" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="E170" s="7">
         <v>31.6</v>
       </c>
       <c r="F170" s="7" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="G170" s="7" t="s">
         <v>17</v>
@@ -9126,7 +9096,7 @@
     </row>
     <row r="171" spans="1:12">
       <c r="A171" s="7" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="B171" s="7" t="s">
         <v>19</v>
@@ -9135,13 +9105,13 @@
         <v>20</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="E171" s="7">
         <v>37.6</v>
       </c>
       <c r="F171" s="7" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="G171" s="7" t="s">
         <v>17</v>
@@ -9162,7 +9132,7 @@
     </row>
     <row r="172" spans="1:12">
       <c r="A172" s="7" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="B172" s="7" t="s">
         <v>19</v>
@@ -9171,13 +9141,13 @@
         <v>23</v>
       </c>
       <c r="D172" s="6" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="E172" s="7">
         <v>40.3</v>
       </c>
       <c r="F172" s="7" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="G172" s="7" t="s">
         <v>17</v>
@@ -9198,28 +9168,28 @@
     </row>
     <row r="173" spans="1:12">
       <c r="A173" s="7" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="C173" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D173" s="6" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="E173" s="7">
         <v>85.7</v>
       </c>
       <c r="F173" s="7" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="G173" s="7" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="H173" s="7" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="I173" s="7">
         <v>2</v>
@@ -9228,34 +9198,34 @@
         <v>1</v>
       </c>
       <c r="K173" s="7" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="L173" s="7"/>
     </row>
     <row r="174" spans="1:12">
       <c r="A174" s="7" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="C174" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D174" s="7" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="E174" s="7">
         <v>90.1</v>
       </c>
       <c r="F174" s="7" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="G174" s="7" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="H174" s="7" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="I174" s="7">
         <v>2</v>
@@ -9264,13 +9234,13 @@
         <v>1</v>
       </c>
       <c r="K174" s="7" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="L174" s="7"/>
     </row>
     <row r="175" spans="1:12">
       <c r="A175" s="7" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="B175" s="7" t="s">
         <v>19</v>
@@ -9279,16 +9249,16 @@
         <v>23</v>
       </c>
       <c r="D175" s="6" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="E175" s="7">
         <v>90.1</v>
       </c>
       <c r="F175" s="7" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="G175" s="7" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="H175" s="7" t="s">
         <v>22</v>
@@ -9300,34 +9270,34 @@
         <v>1</v>
       </c>
       <c r="K175" s="7" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="L175" s="7"/>
     </row>
     <row r="176" spans="1:12">
       <c r="A176" s="7" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="C176" s="7" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="D176" s="7" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="E176" s="7">
         <v>12.9</v>
       </c>
       <c r="F176" s="7" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="G176" s="7" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="H176" s="7" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="I176" s="7">
         <v>1</v>
@@ -9336,28 +9306,28 @@
         <v>0</v>
       </c>
       <c r="K176" s="7" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="L176" s="7"/>
     </row>
     <row r="177" spans="1:12">
       <c r="A177" s="7" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="C177" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D177" s="6" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="E177" s="7">
         <v>64.3</v>
       </c>
       <c r="F177" s="7" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="G177" s="7" t="s">
         <v>17</v>
@@ -9378,7 +9348,7 @@
     </row>
     <row r="178" spans="1:12">
       <c r="A178" s="7" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="B178" s="7" t="s">
         <v>19</v>
@@ -9387,13 +9357,13 @@
         <v>20</v>
       </c>
       <c r="D178" s="6" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
       <c r="E178" s="7">
         <v>74.3</v>
       </c>
       <c r="F178" s="7" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="G178" s="7" t="s">
         <v>17</v>
@@ -9414,7 +9384,7 @@
     </row>
     <row r="179" spans="1:12">
       <c r="A179" s="7" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="B179" s="7" t="s">
         <v>19</v>
@@ -9423,13 +9393,13 @@
         <v>23</v>
       </c>
       <c r="D179" s="6" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
       <c r="E179" s="7">
         <v>77.3</v>
       </c>
       <c r="F179" s="7" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="G179" s="7" t="s">
         <v>17</v>
@@ -9450,22 +9420,22 @@
     </row>
     <row r="180" spans="1:12">
       <c r="A180" s="7" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="C180" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D180" s="6" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="E180" s="7">
         <v>49.7</v>
       </c>
       <c r="F180" s="7" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="G180" s="7" t="s">
         <v>17</v>
@@ -9486,7 +9456,7 @@
     </row>
     <row r="181" spans="1:12">
       <c r="A181" s="7" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="B181" s="7" t="s">
         <v>19</v>
@@ -9495,13 +9465,13 @@
         <v>20</v>
       </c>
       <c r="D181" s="6" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="E181" s="7">
         <v>60.2</v>
       </c>
       <c r="F181" s="7" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="G181" s="7" t="s">
         <v>17</v>
@@ -9522,7 +9492,7 @@
     </row>
     <row r="182" spans="1:12">
       <c r="A182" s="7" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="B182" s="7" t="s">
         <v>19</v>
@@ -9531,13 +9501,13 @@
         <v>23</v>
       </c>
       <c r="D182" s="6" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="E182" s="7">
         <v>70.1</v>
       </c>
       <c r="F182" s="7" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="G182" s="7" t="s">
         <v>17</v>
@@ -9558,22 +9528,22 @@
     </row>
     <row r="183" spans="1:12">
       <c r="A183" s="7" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="C183" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D183" s="6" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="E183" s="7">
         <v>87.6</v>
       </c>
       <c r="F183" s="7" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="G183" s="7" t="s">
         <v>17</v>
@@ -9594,7 +9564,7 @@
     </row>
     <row r="184" spans="1:12">
       <c r="A184" s="7" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="B184" s="7" t="s">
         <v>19</v>
@@ -9603,13 +9573,13 @@
         <v>20</v>
       </c>
       <c r="D184" s="6" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="E184" s="7">
         <v>93</v>
       </c>
       <c r="F184" s="7" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="G184" s="7" t="s">
         <v>17</v>
@@ -9630,7 +9600,7 @@
     </row>
     <row r="185" spans="1:12">
       <c r="A185" s="7" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="B185" s="7" t="s">
         <v>19</v>
@@ -9639,13 +9609,13 @@
         <v>23</v>
       </c>
       <c r="D185" s="6" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="E185" s="7">
         <v>93.4</v>
       </c>
       <c r="F185" s="7" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="G185" s="7" t="s">
         <v>17</v>
@@ -9666,22 +9636,22 @@
     </row>
     <row r="186" spans="1:12">
       <c r="A186" s="7" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="C186" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D186" s="6" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="E186" s="7">
         <v>62.5</v>
       </c>
       <c r="F186" s="7" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="G186" s="7" t="s">
         <v>17</v>
@@ -9702,7 +9672,7 @@
     </row>
     <row r="187" spans="1:12">
       <c r="A187" s="7" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="B187" s="7" t="s">
         <v>19</v>
@@ -9711,13 +9681,13 @@
         <v>20</v>
       </c>
       <c r="D187" s="6" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="E187" s="7">
         <v>75.3</v>
       </c>
       <c r="F187" s="7" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="G187" s="7" t="s">
         <v>17</v>
@@ -9738,7 +9708,7 @@
     </row>
     <row r="188" spans="1:12">
       <c r="A188" s="7" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="B188" s="7" t="s">
         <v>19</v>
@@ -9747,13 +9717,13 @@
         <v>23</v>
       </c>
       <c r="D188" s="6" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="E188" s="7">
         <v>77.5</v>
       </c>
       <c r="F188" s="7" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="G188" s="7" t="s">
         <v>17</v>
@@ -9774,22 +9744,22 @@
     </row>
     <row r="189" spans="1:12">
       <c r="A189" s="7" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="C189" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D189" s="6" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="E189" s="7">
         <v>77.9</v>
       </c>
       <c r="F189" s="7" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="G189" s="7" t="s">
         <v>17</v>
@@ -9810,7 +9780,7 @@
     </row>
     <row r="190" spans="1:12">
       <c r="A190" s="7" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="B190" s="7" t="s">
         <v>19</v>
@@ -9819,13 +9789,13 @@
         <v>20</v>
       </c>
       <c r="D190" s="6" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="E190" s="7">
         <v>87.3</v>
       </c>
       <c r="F190" s="7" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="G190" s="7" t="s">
         <v>17</v>
@@ -9846,7 +9816,7 @@
     </row>
     <row r="191" spans="1:12">
       <c r="A191" s="7" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="B191" s="7" t="s">
         <v>19</v>
@@ -9855,13 +9825,13 @@
         <v>23</v>
       </c>
       <c r="D191" s="6" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="E191" s="7">
         <v>89</v>
       </c>
       <c r="F191" s="7" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="G191" s="7" t="s">
         <v>17</v>
@@ -9882,22 +9852,22 @@
     </row>
     <row r="192" spans="1:12">
       <c r="A192" s="7" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="B192" s="7" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="C192" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D192" s="6" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="E192" s="7">
         <v>72</v>
       </c>
       <c r="F192" s="7" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="G192" s="7" t="s">
         <v>17</v>
@@ -9918,7 +9888,7 @@
     </row>
     <row r="193" spans="1:12">
       <c r="A193" s="7" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="B193" s="7" t="s">
         <v>19</v>
@@ -9927,13 +9897,13 @@
         <v>20</v>
       </c>
       <c r="D193" s="6" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="E193" s="7">
         <v>81.8</v>
       </c>
       <c r="F193" s="7" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="G193" s="7" t="s">
         <v>17</v>
@@ -9954,7 +9924,7 @@
     </row>
     <row r="194" spans="1:12">
       <c r="A194" s="7" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="B194" s="7" t="s">
         <v>19</v>
@@ -9963,13 +9933,13 @@
         <v>23</v>
       </c>
       <c r="D194" s="6" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="E194" s="7">
         <v>84.6</v>
       </c>
       <c r="F194" s="7" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="G194" s="7" t="s">
         <v>17</v>
@@ -9990,22 +9960,22 @@
     </row>
     <row r="195" spans="1:12">
       <c r="A195" s="7" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="C195" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D195" s="12" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="E195" s="7">
         <v>54.3</v>
       </c>
       <c r="F195" s="7" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
       <c r="G195" s="7" t="s">
         <v>17</v>
@@ -10026,7 +9996,7 @@
     </row>
     <row r="196" spans="1:12">
       <c r="A196" s="7" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="B196" s="7" t="s">
         <v>19</v>
@@ -10035,13 +10005,13 @@
         <v>20</v>
       </c>
       <c r="D196" s="6" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="E196" s="7">
         <v>62.1</v>
       </c>
       <c r="F196" s="7" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
       <c r="G196" s="7" t="s">
         <v>17</v>
@@ -10062,7 +10032,7 @@
     </row>
     <row r="197" spans="1:12">
       <c r="A197" s="7" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="B197" s="7" t="s">
         <v>19</v>
@@ -10071,13 +10041,13 @@
         <v>23</v>
       </c>
       <c r="D197" s="6" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="E197" s="7">
         <v>65</v>
       </c>
       <c r="F197" s="7" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
       <c r="G197" s="7" t="s">
         <v>17</v>
@@ -10098,22 +10068,22 @@
     </row>
     <row r="198" spans="1:12">
       <c r="A198" s="7" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="C198" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D198" s="6" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="E198" s="7">
         <v>72.7</v>
       </c>
       <c r="F198" s="7" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="G198" s="7" t="s">
         <v>17</v>
@@ -10134,7 +10104,7 @@
     </row>
     <row r="199" spans="1:12">
       <c r="A199" s="7" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="B199" s="7" t="s">
         <v>19</v>
@@ -10143,13 +10113,13 @@
         <v>20</v>
       </c>
       <c r="D199" s="6" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="E199" s="7">
         <v>83.4</v>
       </c>
       <c r="F199" s="7" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="G199" s="7" t="s">
         <v>17</v>
@@ -10170,7 +10140,7 @@
     </row>
     <row r="200" spans="1:12">
       <c r="A200" s="7" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="B200" s="7" t="s">
         <v>19</v>
@@ -10179,13 +10149,13 @@
         <v>23</v>
       </c>
       <c r="D200" s="6" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
       <c r="E200" s="7">
         <v>85.3</v>
       </c>
       <c r="F200" s="7" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="G200" s="7" t="s">
         <v>17</v>
@@ -10206,22 +10176,22 @@
     </row>
     <row r="201" spans="1:12">
       <c r="A201" s="7" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="B201" s="7" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="C201" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D201" s="6" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="E201" s="7">
         <v>59.2</v>
       </c>
       <c r="F201" s="7" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
       <c r="G201" s="7" t="s">
         <v>17</v>
@@ -10242,7 +10212,7 @@
     </row>
     <row r="202" spans="1:12">
       <c r="A202" s="7" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="B202" s="7" t="s">
         <v>19</v>
@@ -10251,13 +10221,13 @@
         <v>20</v>
       </c>
       <c r="D202" s="6" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="E202" s="7">
         <v>69.1</v>
       </c>
       <c r="F202" s="7" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
       <c r="G202" s="7" t="s">
         <v>17</v>
@@ -10278,7 +10248,7 @@
     </row>
     <row r="203" spans="1:12">
       <c r="A203" s="7" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="B203" s="7" t="s">
         <v>19</v>
@@ -10287,13 +10257,13 @@
         <v>23</v>
       </c>
       <c r="D203" s="6" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
       <c r="E203" s="7">
         <v>71.7</v>
       </c>
       <c r="F203" s="7" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
       <c r="G203" s="7" t="s">
         <v>17</v>
@@ -10314,22 +10284,22 @@
     </row>
     <row r="204" spans="1:12">
       <c r="A204" s="7" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
       <c r="B204" s="7" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
       <c r="C204" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D204" s="6" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="E204" s="7">
         <v>74</v>
       </c>
       <c r="F204" s="7" t="s">
-        <v>534</v>
+        <v>523</v>
       </c>
       <c r="G204" s="7" t="s">
         <v>17</v>
@@ -10350,22 +10320,22 @@
     </row>
     <row r="205" spans="1:12">
       <c r="A205" s="7" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
       <c r="B205" s="7" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="C205" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D205" s="7" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="E205" s="7">
         <v>37.2</v>
       </c>
       <c r="F205" s="7" t="s">
-        <v>534</v>
+        <v>523</v>
       </c>
       <c r="G205" s="7" t="s">
         <v>17</v>
@@ -10386,7 +10356,7 @@
     </row>
     <row r="206" spans="1:12">
       <c r="A206" s="7" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
       <c r="B206" s="7" t="s">
         <v>19</v>
@@ -10395,13 +10365,13 @@
         <v>20</v>
       </c>
       <c r="D206" s="6" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="E206" s="7">
         <v>38</v>
       </c>
       <c r="F206" s="7" t="s">
-        <v>534</v>
+        <v>523</v>
       </c>
       <c r="G206" s="7" t="s">
         <v>17</v>
@@ -10422,7 +10392,7 @@
     </row>
     <row r="207" spans="1:12">
       <c r="A207" s="7" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
       <c r="B207" s="7" t="s">
         <v>19</v>
@@ -10431,13 +10401,13 @@
         <v>20</v>
       </c>
       <c r="D207" s="6" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="E207" s="7">
         <v>87.4</v>
       </c>
       <c r="F207" s="7" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
       <c r="G207" s="7" t="s">
         <v>17</v>
@@ -10458,7 +10428,7 @@
     </row>
     <row r="208" spans="1:12">
       <c r="A208" s="7" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
       <c r="B208" s="7" t="s">
         <v>19</v>
@@ -10467,13 +10437,13 @@
         <v>23</v>
       </c>
       <c r="D208" s="6" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="E208" s="7">
         <v>89.1</v>
       </c>
       <c r="F208" s="7" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
       <c r="G208" s="7" t="s">
         <v>17</v>
@@ -10494,7 +10464,7 @@
     </row>
     <row r="209" spans="1:12">
       <c r="A209" s="7" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
       <c r="B209" s="7" t="s">
         <v>19</v>
@@ -10503,13 +10473,13 @@
         <v>23</v>
       </c>
       <c r="D209" s="7" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="E209" s="7">
         <v>36.9</v>
       </c>
       <c r="F209" s="7" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
       <c r="G209" s="7" t="s">
         <v>17</v>
@@ -10530,22 +10500,22 @@
     </row>
     <row r="210" spans="1:12">
       <c r="A210" s="7" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="B210" s="7" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
       <c r="C210" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D210" s="6" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="E210" s="7">
         <v>70.9</v>
       </c>
       <c r="F210" s="7" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="G210" s="7" t="s">
         <v>17</v>
@@ -10566,7 +10536,7 @@
     </row>
     <row r="211" spans="1:12">
       <c r="A211" s="7" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="B211" s="7" t="s">
         <v>19</v>
@@ -10575,13 +10545,13 @@
         <v>20</v>
       </c>
       <c r="D211" s="6" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="E211" s="7">
         <v>83.3</v>
       </c>
       <c r="F211" s="7" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="G211" s="7" t="s">
         <v>17</v>
@@ -10602,7 +10572,7 @@
     </row>
     <row r="212" spans="1:12">
       <c r="A212" s="7" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="B212" s="7" t="s">
         <v>19</v>
@@ -10611,13 +10581,13 @@
         <v>23</v>
       </c>
       <c r="D212" s="6" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="E212" s="7">
         <v>84.5</v>
       </c>
       <c r="F212" s="7" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="G212" s="7" t="s">
         <v>17</v>
@@ -10638,22 +10608,22 @@
     </row>
     <row r="213" spans="1:12">
       <c r="A213" s="7" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="B213" s="7" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="C213" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D213" s="7" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="E213" s="7">
         <v>55.3</v>
       </c>
       <c r="F213" s="7" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
       <c r="G213" s="7" t="s">
         <v>17</v>
@@ -10674,22 +10644,22 @@
     </row>
     <row r="214" spans="1:12">
       <c r="A214" s="7" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="B214" s="7" t="s">
-        <v>552</v>
+        <v>541</v>
       </c>
       <c r="C214" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D214" s="6" t="s">
-        <v>553</v>
+        <v>542</v>
       </c>
       <c r="E214" s="7">
         <v>34.9</v>
       </c>
       <c r="F214" s="7" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="G214" s="7" t="s">
         <v>17</v>
@@ -10710,7 +10680,7 @@
     </row>
     <row r="215" spans="1:12">
       <c r="A215" s="7" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="B215" s="7" t="s">
         <v>19</v>
@@ -10719,13 +10689,13 @@
         <v>20</v>
       </c>
       <c r="D215" s="6" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
       <c r="E215" s="7">
         <v>64.8</v>
       </c>
       <c r="F215" s="7" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
       <c r="G215" s="7" t="s">
         <v>17</v>
@@ -10746,7 +10716,7 @@
     </row>
     <row r="216" spans="1:12">
       <c r="A216" s="7" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="B216" s="7" t="s">
         <v>19</v>
@@ -10755,13 +10725,13 @@
         <v>20</v>
       </c>
       <c r="D216" s="6" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E216" s="7">
         <v>47.9</v>
       </c>
       <c r="F216" s="7" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="G216" s="7" t="s">
         <v>17</v>
@@ -10782,7 +10752,7 @@
     </row>
     <row r="217" spans="1:12">
       <c r="A217" s="7" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="B217" s="7" t="s">
         <v>19</v>
@@ -10791,13 +10761,13 @@
         <v>23</v>
       </c>
       <c r="D217" s="6" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="E217" s="7">
         <v>46.4</v>
       </c>
       <c r="F217" s="7" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="G217" s="7" t="s">
         <v>17</v>
@@ -10818,7 +10788,7 @@
     </row>
     <row r="218" spans="1:12">
       <c r="A218" s="7" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="B218" s="7" t="s">
         <v>19</v>
@@ -10827,13 +10797,13 @@
         <v>23</v>
       </c>
       <c r="D218" s="7" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="E218" s="7">
         <v>66.9</v>
       </c>
       <c r="F218" s="7" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
       <c r="G218" s="7" t="s">
         <v>17</v>
@@ -10854,22 +10824,22 @@
     </row>
     <row r="219" spans="1:12">
       <c r="A219" s="7" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="B219" s="7" t="s">
-        <v>560</v>
+        <v>549</v>
       </c>
       <c r="C219" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D219" s="6" t="s">
-        <v>561</v>
+        <v>550</v>
       </c>
       <c r="E219" s="7">
         <v>64.6</v>
       </c>
       <c r="F219" s="7" t="s">
-        <v>562</v>
+        <v>551</v>
       </c>
       <c r="G219" s="7" t="s">
         <v>17</v>
@@ -10890,7 +10860,7 @@
     </row>
     <row r="220" spans="1:12">
       <c r="A220" s="7" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="B220" s="7" t="s">
         <v>19</v>
@@ -10899,13 +10869,13 @@
         <v>20</v>
       </c>
       <c r="D220" s="6" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="E220" s="7">
         <v>74.2</v>
       </c>
       <c r="F220" s="7" t="s">
-        <v>562</v>
+        <v>551</v>
       </c>
       <c r="G220" s="7" t="s">
         <v>17</v>
@@ -10926,7 +10896,7 @@
     </row>
     <row r="221" spans="1:12">
       <c r="A221" s="7" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="B221" s="7" t="s">
         <v>19</v>
@@ -10935,13 +10905,13 @@
         <v>23</v>
       </c>
       <c r="D221" s="6" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
       <c r="E221" s="7">
         <v>77.7</v>
       </c>
       <c r="F221" s="7" t="s">
-        <v>562</v>
+        <v>551</v>
       </c>
       <c r="G221" s="7" t="s">
         <v>17</v>
@@ -10962,22 +10932,22 @@
     </row>
     <row r="222" spans="1:12">
       <c r="A222" s="7" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="B222" s="7" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
       <c r="C222" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D222" s="6" t="s">
-        <v>567</v>
+        <v>556</v>
       </c>
       <c r="E222" s="7">
         <v>60.1</v>
       </c>
       <c r="F222" s="7" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
       <c r="G222" s="7" t="s">
         <v>17</v>
@@ -10998,7 +10968,7 @@
     </row>
     <row r="223" spans="1:12">
       <c r="A223" s="7" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="B223" s="7" t="s">
         <v>19</v>
@@ -11007,13 +10977,13 @@
         <v>20</v>
       </c>
       <c r="D223" s="6" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="E223" s="7">
         <v>72.3</v>
       </c>
       <c r="F223" s="7" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
       <c r="G223" s="7" t="s">
         <v>17</v>
@@ -11034,7 +11004,7 @@
     </row>
     <row r="224" spans="1:12">
       <c r="A224" s="7" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="B224" s="7" t="s">
         <v>19</v>
@@ -11043,13 +11013,13 @@
         <v>23</v>
       </c>
       <c r="D224" s="6" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="E224" s="7">
         <v>74.2</v>
       </c>
       <c r="F224" s="7" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
       <c r="G224" s="7" t="s">
         <v>17</v>
@@ -11070,22 +11040,22 @@
     </row>
     <row r="225" spans="1:12">
       <c r="A225" s="7" t="s">
-        <v>571</v>
+        <v>560</v>
       </c>
       <c r="B225" s="7" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="C225" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D225" s="6" t="s">
-        <v>573</v>
+        <v>562</v>
       </c>
       <c r="E225" s="7">
         <v>67.8</v>
       </c>
       <c r="F225" s="7" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="G225" s="7" t="s">
         <v>17</v>
@@ -11106,7 +11076,7 @@
     </row>
     <row r="226" spans="1:12">
       <c r="A226" s="7" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="B226" s="7" t="s">
         <v>19</v>
@@ -11115,13 +11085,13 @@
         <v>20</v>
       </c>
       <c r="D226" s="6" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="E226" s="7">
         <v>75</v>
       </c>
       <c r="F226" s="7" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="G226" s="7" t="s">
         <v>17</v>
@@ -11142,7 +11112,7 @@
     </row>
     <row r="227" spans="1:12">
       <c r="A227" s="7" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="B227" s="7" t="s">
         <v>19</v>
@@ -11151,13 +11121,13 @@
         <v>23</v>
       </c>
       <c r="D227" s="6" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="E227" s="7">
         <v>77</v>
       </c>
       <c r="F227" s="7" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="G227" s="7" t="s">
         <v>17</v>
@@ -11178,22 +11148,22 @@
     </row>
     <row r="228" spans="1:12">
       <c r="A228" s="7" t="s">
-        <v>578</v>
+        <v>567</v>
       </c>
       <c r="B228" s="7" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
       <c r="C228" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D228" s="6" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="E228" s="7">
         <v>50.7</v>
       </c>
       <c r="F228" s="7" t="s">
-        <v>581</v>
+        <v>570</v>
       </c>
       <c r="G228" s="7" t="s">
         <v>17</v>
@@ -11214,7 +11184,7 @@
     </row>
     <row r="229" spans="1:12">
       <c r="A229" s="7" t="s">
-        <v>578</v>
+        <v>567</v>
       </c>
       <c r="B229" s="7" t="s">
         <v>19</v>
@@ -11223,13 +11193,13 @@
         <v>20</v>
       </c>
       <c r="D229" s="6" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="E229" s="7">
         <v>57.6</v>
       </c>
       <c r="F229" s="7" t="s">
-        <v>581</v>
+        <v>570</v>
       </c>
       <c r="G229" s="7" t="s">
         <v>17</v>
@@ -11250,7 +11220,7 @@
     </row>
     <row r="230" spans="1:12">
       <c r="A230" s="7" t="s">
-        <v>578</v>
+        <v>567</v>
       </c>
       <c r="B230" s="7" t="s">
         <v>19</v>
@@ -11259,13 +11229,13 @@
         <v>23</v>
       </c>
       <c r="D230" s="6" t="s">
-        <v>583</v>
+        <v>572</v>
       </c>
       <c r="E230" s="7">
         <v>59.7</v>
       </c>
       <c r="F230" s="7" t="s">
-        <v>581</v>
+        <v>570</v>
       </c>
       <c r="G230" s="7" t="s">
         <v>17</v>
@@ -11286,22 +11256,22 @@
     </row>
     <row r="231" spans="1:12">
       <c r="A231" s="7" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="B231" s="7" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="C231" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D231" s="6" t="s">
-        <v>586</v>
+        <v>575</v>
       </c>
       <c r="E231" s="7">
         <v>51</v>
       </c>
       <c r="F231" s="7" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
       <c r="G231" s="7" t="s">
         <v>17</v>
@@ -11316,13 +11286,13 @@
         <v>0</v>
       </c>
       <c r="K231" s="7" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
       <c r="L231" s="7"/>
     </row>
     <row r="232" spans="1:12">
       <c r="A232" s="7" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="B232" s="7" t="s">
         <v>19</v>
@@ -11331,13 +11301,13 @@
         <v>20</v>
       </c>
       <c r="D232" s="6" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
       <c r="E232" s="7">
         <v>58.8</v>
       </c>
       <c r="F232" s="7" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
       <c r="G232" s="7" t="s">
         <v>17</v>
@@ -11352,13 +11322,13 @@
         <v>0</v>
       </c>
       <c r="K232" s="7" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
       <c r="L232" s="7"/>
     </row>
     <row r="233" spans="1:12">
       <c r="A233" s="7" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="B233" s="7" t="s">
         <v>19</v>
@@ -11367,13 +11337,13 @@
         <v>23</v>
       </c>
       <c r="D233" s="6" t="s">
-        <v>590</v>
+        <v>579</v>
       </c>
       <c r="E233" s="7">
         <v>62.7</v>
       </c>
       <c r="F233" s="7" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
       <c r="G233" s="7" t="s">
         <v>17</v>
@@ -11388,28 +11358,28 @@
         <v>0</v>
       </c>
       <c r="K233" s="7" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
       <c r="L233" s="7"/>
     </row>
     <row r="234" spans="1:12">
       <c r="A234" s="7" t="s">
-        <v>591</v>
+        <v>580</v>
       </c>
       <c r="B234" s="7" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
       <c r="C234" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D234" s="6" t="s">
-        <v>593</v>
+        <v>582</v>
       </c>
       <c r="E234" s="7">
         <v>58.8</v>
       </c>
       <c r="F234" s="7" t="s">
-        <v>594</v>
+        <v>583</v>
       </c>
       <c r="G234" s="7" t="s">
         <v>17</v>
@@ -11430,7 +11400,7 @@
     </row>
     <row r="235" spans="1:12">
       <c r="A235" s="7" t="s">
-        <v>591</v>
+        <v>580</v>
       </c>
       <c r="B235" s="7" t="s">
         <v>19</v>
@@ -11439,13 +11409,13 @@
         <v>20</v>
       </c>
       <c r="D235" s="12" t="s">
-        <v>595</v>
+        <v>584</v>
       </c>
       <c r="E235" s="7">
         <v>69.3</v>
       </c>
       <c r="F235" s="7" t="s">
-        <v>594</v>
+        <v>583</v>
       </c>
       <c r="G235" s="7" t="s">
         <v>17</v>
@@ -11466,7 +11436,7 @@
     </row>
     <row r="236" spans="1:12">
       <c r="A236" s="7" t="s">
-        <v>591</v>
+        <v>580</v>
       </c>
       <c r="B236" s="7" t="s">
         <v>19</v>
@@ -11475,13 +11445,13 @@
         <v>23</v>
       </c>
       <c r="D236" s="6" t="s">
-        <v>596</v>
+        <v>585</v>
       </c>
       <c r="E236" s="7">
         <v>71.9</v>
       </c>
       <c r="F236" s="7" t="s">
-        <v>594</v>
+        <v>583</v>
       </c>
       <c r="G236" s="7" t="s">
         <v>17</v>
@@ -11502,22 +11472,22 @@
     </row>
     <row r="237" spans="1:12">
       <c r="A237" s="7" t="s">
-        <v>597</v>
+        <v>586</v>
       </c>
       <c r="B237" s="7" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
       <c r="C237" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D237" s="6" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
       <c r="E237" s="7">
         <v>68.6</v>
       </c>
       <c r="F237" s="7" t="s">
-        <v>600</v>
+        <v>589</v>
       </c>
       <c r="G237" s="7" t="s">
         <v>17</v>
@@ -11538,7 +11508,7 @@
     </row>
     <row r="238" spans="1:12">
       <c r="A238" s="7" t="s">
-        <v>597</v>
+        <v>586</v>
       </c>
       <c r="B238" s="7" t="s">
         <v>19</v>
@@ -11547,13 +11517,13 @@
         <v>20</v>
       </c>
       <c r="D238" s="6" t="s">
-        <v>601</v>
+        <v>590</v>
       </c>
       <c r="E238" s="7">
         <v>79.2</v>
       </c>
       <c r="F238" s="7" t="s">
-        <v>600</v>
+        <v>589</v>
       </c>
       <c r="G238" s="7" t="s">
         <v>17</v>
@@ -11574,7 +11544,7 @@
     </row>
     <row r="239" spans="1:12">
       <c r="A239" s="7" t="s">
-        <v>597</v>
+        <v>586</v>
       </c>
       <c r="B239" s="7" t="s">
         <v>19</v>
@@ -11583,13 +11553,13 @@
         <v>23</v>
       </c>
       <c r="D239" s="6" t="s">
-        <v>602</v>
+        <v>591</v>
       </c>
       <c r="E239" s="7">
         <v>81.7</v>
       </c>
       <c r="F239" s="7" t="s">
-        <v>600</v>
+        <v>589</v>
       </c>
       <c r="G239" s="7" t="s">
         <v>17</v>
@@ -11610,28 +11580,28 @@
     </row>
     <row r="240" spans="1:12">
       <c r="A240" s="7" t="s">
-        <v>603</v>
+        <v>592</v>
       </c>
       <c r="B240" s="7" t="s">
-        <v>604</v>
+        <v>593</v>
       </c>
       <c r="C240" s="7" t="s">
-        <v>605</v>
+        <v>594</v>
       </c>
       <c r="D240" s="6" t="s">
-        <v>606</v>
+        <v>595</v>
       </c>
       <c r="E240" s="7">
         <v>91</v>
       </c>
       <c r="F240" s="7" t="s">
-        <v>607</v>
+        <v>596</v>
       </c>
       <c r="G240" s="7" t="s">
-        <v>608</v>
+        <v>597</v>
       </c>
       <c r="H240" s="7" t="s">
-        <v>608</v>
+        <v>597</v>
       </c>
       <c r="I240" s="7">
         <v>1</v>
@@ -11640,13 +11610,13 @@
         <v>1</v>
       </c>
       <c r="K240" s="7" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="L240" s="7"/>
     </row>
     <row r="241" spans="1:12">
       <c r="A241" s="7" t="s">
-        <v>603</v>
+        <v>592</v>
       </c>
       <c r="B241" s="7" t="s">
         <v>19</v>
@@ -11655,16 +11625,16 @@
         <v>23</v>
       </c>
       <c r="D241" s="6" t="s">
-        <v>609</v>
+        <v>598</v>
       </c>
       <c r="E241" s="7">
         <v>68.1</v>
       </c>
       <c r="F241" s="7" t="s">
-        <v>610</v>
+        <v>599</v>
       </c>
       <c r="G241" s="7" t="s">
-        <v>608</v>
+        <v>597</v>
       </c>
       <c r="H241" s="7" t="s">
         <v>22</v>
@@ -11676,28 +11646,28 @@
         <v>1</v>
       </c>
       <c r="K241" s="7" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="L241" s="7"/>
     </row>
     <row r="242" spans="1:12">
       <c r="A242" s="7" t="s">
-        <v>611</v>
+        <v>600</v>
       </c>
       <c r="B242" s="7" t="s">
-        <v>612</v>
+        <v>601</v>
       </c>
       <c r="C242" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D242" s="6" t="s">
-        <v>613</v>
+        <v>602</v>
       </c>
       <c r="E242" s="7">
         <v>64.7</v>
       </c>
       <c r="F242" s="7" t="s">
-        <v>614</v>
+        <v>603</v>
       </c>
       <c r="G242" s="7" t="s">
         <v>17</v>
@@ -11718,7 +11688,7 @@
     </row>
     <row r="243" spans="1:12">
       <c r="A243" s="7" t="s">
-        <v>611</v>
+        <v>600</v>
       </c>
       <c r="B243" s="7" t="s">
         <v>19</v>
@@ -11727,13 +11697,13 @@
         <v>20</v>
       </c>
       <c r="D243" s="6" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="E243" s="7">
         <v>75.3</v>
       </c>
       <c r="F243" s="7" t="s">
-        <v>614</v>
+        <v>603</v>
       </c>
       <c r="G243" s="7" t="s">
         <v>17</v>
@@ -11754,7 +11724,7 @@
     </row>
     <row r="244" spans="1:12">
       <c r="A244" s="7" t="s">
-        <v>611</v>
+        <v>600</v>
       </c>
       <c r="B244" s="7" t="s">
         <v>19</v>
@@ -11763,13 +11733,13 @@
         <v>23</v>
       </c>
       <c r="D244" s="6" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="E244" s="7">
         <v>77.6</v>
       </c>
       <c r="F244" s="7" t="s">
-        <v>614</v>
+        <v>603</v>
       </c>
       <c r="G244" s="7" t="s">
         <v>17</v>
@@ -11790,22 +11760,22 @@
     </row>
     <row r="245" spans="1:12">
       <c r="A245" s="7" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
       <c r="B245" s="7" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
       <c r="C245" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D245" s="6" t="s">
-        <v>619</v>
+        <v>608</v>
       </c>
       <c r="E245" s="7">
         <v>65.8</v>
       </c>
       <c r="F245" s="7" t="s">
-        <v>620</v>
+        <v>609</v>
       </c>
       <c r="G245" s="7" t="s">
         <v>17</v>
@@ -11826,7 +11796,7 @@
     </row>
     <row r="246" spans="1:12">
       <c r="A246" s="7" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
       <c r="B246" s="7" t="s">
         <v>19</v>
@@ -11835,13 +11805,13 @@
         <v>20</v>
       </c>
       <c r="D246" s="6" t="s">
-        <v>621</v>
+        <v>610</v>
       </c>
       <c r="E246" s="7">
         <v>75.7</v>
       </c>
       <c r="F246" s="7" t="s">
-        <v>620</v>
+        <v>609</v>
       </c>
       <c r="G246" s="7" t="s">
         <v>17</v>
@@ -11862,7 +11832,7 @@
     </row>
     <row r="247" spans="1:12">
       <c r="A247" s="7" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
       <c r="B247" s="7" t="s">
         <v>19</v>
@@ -11871,13 +11841,13 @@
         <v>23</v>
       </c>
       <c r="D247" s="6" t="s">
-        <v>622</v>
+        <v>611</v>
       </c>
       <c r="E247" s="7">
         <v>78.6</v>
       </c>
       <c r="F247" s="7" t="s">
-        <v>620</v>
+        <v>609</v>
       </c>
       <c r="G247" s="7" t="s">
         <v>17</v>
@@ -11898,22 +11868,22 @@
     </row>
     <row r="248" spans="1:12">
       <c r="A248" s="7" t="s">
-        <v>623</v>
+        <v>612</v>
       </c>
       <c r="B248" s="7" t="s">
-        <v>624</v>
+        <v>613</v>
       </c>
       <c r="C248" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D248" s="6" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="E248" s="7">
         <v>24.7</v>
       </c>
       <c r="F248" s="7" t="s">
-        <v>626</v>
+        <v>615</v>
       </c>
       <c r="G248" s="7" t="s">
         <v>17</v>
@@ -11934,7 +11904,7 @@
     </row>
     <row r="249" spans="1:12">
       <c r="A249" s="7" t="s">
-        <v>623</v>
+        <v>612</v>
       </c>
       <c r="B249" s="7" t="s">
         <v>19</v>
@@ -11943,13 +11913,13 @@
         <v>20</v>
       </c>
       <c r="D249" s="6" t="s">
-        <v>627</v>
+        <v>616</v>
       </c>
       <c r="E249" s="7">
         <v>28.9</v>
       </c>
       <c r="F249" s="7" t="s">
-        <v>626</v>
+        <v>615</v>
       </c>
       <c r="G249" s="7" t="s">
         <v>17</v>
@@ -11970,7 +11940,7 @@
     </row>
     <row r="250" spans="1:12">
       <c r="A250" s="7" t="s">
-        <v>623</v>
+        <v>612</v>
       </c>
       <c r="B250" s="7" t="s">
         <v>19</v>
@@ -11979,13 +11949,13 @@
         <v>23</v>
       </c>
       <c r="D250" s="6" t="s">
-        <v>628</v>
+        <v>617</v>
       </c>
       <c r="E250" s="7">
         <v>32</v>
       </c>
       <c r="F250" s="7" t="s">
-        <v>626</v>
+        <v>615</v>
       </c>
       <c r="G250" s="7" t="s">
         <v>17</v>
@@ -12006,28 +11976,28 @@
     </row>
     <row r="251" spans="1:12">
       <c r="A251" s="7" t="s">
-        <v>629</v>
+        <v>618</v>
       </c>
       <c r="B251" s="7" t="s">
-        <v>630</v>
+        <v>619</v>
       </c>
       <c r="C251" s="7" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="D251" s="6" t="s">
-        <v>632</v>
+        <v>621</v>
       </c>
       <c r="E251" s="5">
         <v>92.5</v>
       </c>
       <c r="F251" s="7" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="G251" s="7" t="s">
-        <v>634</v>
+        <v>623</v>
       </c>
       <c r="H251" s="7" t="s">
-        <v>634</v>
+        <v>623</v>
       </c>
       <c r="I251" s="7">
         <v>3</v>
@@ -12036,15 +12006,15 @@
         <v>1</v>
       </c>
       <c r="K251" s="7" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="L251" s="5" t="s">
-        <v>635</v>
+        <v>624</v>
       </c>
     </row>
     <row r="252" spans="1:12">
       <c r="A252" s="7" t="s">
-        <v>629</v>
+        <v>618</v>
       </c>
       <c r="B252" s="7" t="s">
         <v>19</v>
@@ -12053,16 +12023,16 @@
         <v>23</v>
       </c>
       <c r="D252" s="6" t="s">
-        <v>636</v>
+        <v>625</v>
       </c>
       <c r="E252" s="5">
         <v>74.8</v>
       </c>
       <c r="F252" s="7" t="s">
-        <v>637</v>
+        <v>626</v>
       </c>
       <c r="G252" s="7" t="s">
-        <v>634</v>
+        <v>623</v>
       </c>
       <c r="H252" s="7" t="s">
         <v>22</v>
@@ -12074,13 +12044,13 @@
         <v>1</v>
       </c>
       <c r="K252" s="7" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="L252" s="5"/>
     </row>
     <row r="253" spans="1:12">
       <c r="A253" s="7" t="s">
-        <v>638</v>
+        <v>627</v>
       </c>
       <c r="B253" s="7" t="s">
         <v>19</v>
@@ -12089,16 +12059,16 @@
         <v>23</v>
       </c>
       <c r="D253" s="6" t="s">
-        <v>639</v>
+        <v>628</v>
       </c>
       <c r="E253" s="5">
         <v>91.2</v>
       </c>
       <c r="F253" s="7" t="s">
-        <v>640</v>
+        <v>629</v>
       </c>
       <c r="G253" s="6" t="s">
-        <v>641</v>
+        <v>630</v>
       </c>
       <c r="H253" s="5" t="s">
         <v>22</v>
@@ -12110,13 +12080,13 @@
         <v>1</v>
       </c>
       <c r="K253" s="5" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="L253" s="5"/>
     </row>
     <row r="254" spans="1:12">
       <c r="A254" s="7" t="s">
-        <v>638</v>
+        <v>627</v>
       </c>
       <c r="B254" s="7" t="s">
         <v>19</v>
@@ -12125,16 +12095,16 @@
         <v>20</v>
       </c>
       <c r="D254" s="6" t="s">
-        <v>642</v>
+        <v>631</v>
       </c>
       <c r="E254" s="5">
         <v>90.3</v>
       </c>
       <c r="F254" s="7" t="s">
-        <v>640</v>
+        <v>629</v>
       </c>
       <c r="G254" s="6" t="s">
-        <v>641</v>
+        <v>630</v>
       </c>
       <c r="H254" s="5" t="s">
         <v>22</v>
@@ -12146,156 +12116,159 @@
         <v>1</v>
       </c>
       <c r="K254" s="5" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="L254" s="5"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L254">
+    <extLst/>
+  </autoFilter>
   <sortState ref="A2:M254">
     <sortCondition ref="A2:A254"/>
   </sortState>
   <conditionalFormatting sqref="G5">
-    <cfRule type="containsBlanks" dxfId="0" priority="32">
+    <cfRule type="containsBlanks" dxfId="0" priority="33">
       <formula>LEN(TRIM(G5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="containsBlanks" dxfId="0" priority="31">
+    <cfRule type="containsBlanks" dxfId="0" priority="32">
       <formula>LEN(TRIM(G13))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G97">
-    <cfRule type="containsBlanks" dxfId="0" priority="22">
+    <cfRule type="containsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(G97))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G100">
-    <cfRule type="containsBlanks" dxfId="0" priority="21">
+    <cfRule type="containsBlanks" dxfId="0" priority="22">
       <formula>LEN(TRIM(G100))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G115">
-    <cfRule type="containsBlanks" dxfId="0" priority="19">
+    <cfRule type="containsBlanks" dxfId="0" priority="20">
       <formula>LEN(TRIM(G115))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G116">
-    <cfRule type="containsBlanks" dxfId="0" priority="20">
+    <cfRule type="containsBlanks" dxfId="0" priority="21">
       <formula>LEN(TRIM(G116))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H116">
-    <cfRule type="containsBlanks" dxfId="0" priority="7">
+    <cfRule type="containsBlanks" dxfId="0" priority="8">
       <formula>LEN(TRIM(H116))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G117">
-    <cfRule type="containsBlanks" dxfId="0" priority="17">
+    <cfRule type="containsBlanks" dxfId="0" priority="18">
       <formula>LEN(TRIM(G117))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H117">
-    <cfRule type="containsBlanks" dxfId="0" priority="16">
+    <cfRule type="containsBlanks" dxfId="0" priority="17">
       <formula>LEN(TRIM(H117))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G118">
-    <cfRule type="containsBlanks" dxfId="0" priority="15">
+    <cfRule type="containsBlanks" dxfId="0" priority="16">
       <formula>LEN(TRIM(G118))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H118">
-    <cfRule type="containsBlanks" dxfId="0" priority="14">
+    <cfRule type="containsBlanks" dxfId="0" priority="15">
       <formula>LEN(TRIM(H118))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G119">
-    <cfRule type="containsBlanks" dxfId="0" priority="6">
+    <cfRule type="containsBlanks" dxfId="0" priority="7">
       <formula>LEN(TRIM(G119))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H119">
-    <cfRule type="containsBlanks" dxfId="0" priority="5">
+    <cfRule type="containsBlanks" dxfId="0" priority="6">
       <formula>LEN(TRIM(H119))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G120">
-    <cfRule type="containsBlanks" dxfId="0" priority="11">
+    <cfRule type="containsBlanks" dxfId="0" priority="12">
       <formula>LEN(TRIM(G120))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H120">
-    <cfRule type="containsBlanks" dxfId="0" priority="10">
+    <cfRule type="containsBlanks" dxfId="0" priority="11">
       <formula>LEN(TRIM(H120))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G121">
-    <cfRule type="containsBlanks" dxfId="0" priority="9">
+    <cfRule type="containsBlanks" dxfId="0" priority="10">
       <formula>LEN(TRIM(G121))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H121">
-    <cfRule type="containsBlanks" dxfId="0" priority="8">
+    <cfRule type="containsBlanks" dxfId="0" priority="9">
       <formula>LEN(TRIM(H121))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G122">
-    <cfRule type="containsBlanks" dxfId="0" priority="4">
+    <cfRule type="containsBlanks" dxfId="0" priority="5">
       <formula>LEN(TRIM(G122))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G124">
-    <cfRule type="containsBlanks" dxfId="0" priority="3">
+    <cfRule type="containsBlanks" dxfId="0" priority="4">
       <formula>LEN(TRIM(G124))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H131">
-    <cfRule type="containsBlanks" dxfId="0" priority="2">
+    <cfRule type="containsBlanks" dxfId="0" priority="3">
       <formula>LEN(TRIM(H131))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K231">
-    <cfRule type="containsBlanks" dxfId="0" priority="1">
+    <cfRule type="containsBlanks" dxfId="0" priority="2">
       <formula>LEN(TRIM(K231))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:J254;K1:K230;K232:K254;H5;D1:E254;G1:H4;G6:H12;H13:H97;F99:H99;F100:F254;F41:G96;H100;H107:H115;H122:H130;G132:H254;C1:C38;G107:G114;G123;C41:C142;C144:C254;F97:F98;G125:G131;A1:B254;F1:F40;G14:G40">
-    <cfRule type="containsBlanks" dxfId="0" priority="33">
+    <cfRule type="containsBlanks" dxfId="0" priority="34">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H98;G98">
-    <cfRule type="containsBlanks" dxfId="0" priority="30">
+    <cfRule type="containsBlanks" dxfId="0" priority="31">
       <formula>LEN(TRIM(G98))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H101;G101">
-    <cfRule type="containsBlanks" dxfId="0" priority="29">
+    <cfRule type="containsBlanks" dxfId="0" priority="30">
       <formula>LEN(TRIM(G101))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H102;G102">
-    <cfRule type="containsBlanks" dxfId="0" priority="28">
+    <cfRule type="containsBlanks" dxfId="0" priority="29">
       <formula>LEN(TRIM(G102))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H103;G103">
-    <cfRule type="containsBlanks" dxfId="0" priority="27">
+    <cfRule type="containsBlanks" dxfId="0" priority="28">
       <formula>LEN(TRIM(G103))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H104;G104">
-    <cfRule type="containsBlanks" dxfId="0" priority="26">
+    <cfRule type="containsBlanks" dxfId="0" priority="27">
       <formula>LEN(TRIM(G104))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H105;G105">
-    <cfRule type="containsBlanks" dxfId="0" priority="25">
+    <cfRule type="containsBlanks" dxfId="0" priority="26">
       <formula>LEN(TRIM(G105))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H106;G106">
-    <cfRule type="containsBlanks" dxfId="0" priority="24">
+    <cfRule type="containsBlanks" dxfId="0" priority="25">
       <formula>LEN(TRIM(G106))=0</formula>
     </cfRule>
   </conditionalFormatting>
